--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1822546.010506742</v>
+        <v>-1824488.742859579</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.602605461619501</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,37 +1148,37 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.956053622142033</v>
+      </c>
+      <c r="R8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1215,67 +1215,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,55 +1309,55 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>346.4099514934369</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>242.0005478842652</v>
       </c>
       <c r="D11" t="n">
-        <v>318.3591514506393</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>345.6064799022182</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>370.5521555716678</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>376.3551063489521</v>
       </c>
       <c r="H11" t="n">
-        <v>276.2805244690126</v>
+        <v>276.2805244690125</v>
       </c>
       <c r="I11" t="n">
-        <v>73.00022464670434</v>
+        <v>73.00022464670425</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>112.9076814666788</v>
       </c>
       <c r="T11" t="n">
-        <v>175.2865331834882</v>
+        <v>175.2865331834881</v>
       </c>
       <c r="U11" t="n">
-        <v>214.8118634581017</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>291.4283683000913</v>
+        <v>291.4283683000912</v>
       </c>
       <c r="W11" t="n">
-        <v>15.35029290638465</v>
+        <v>312.9170785473693</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>333.4072105084254</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.5080900118937</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9229309285842</v>
+        <v>130.9229309285841</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>112.2915828481686</v>
       </c>
       <c r="E13" t="n">
         <v>110.1100724765255</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>109.0971578528875</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>130.4901693030567</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4393946293916</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.05090345274004</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.1822040466379</v>
       </c>
       <c r="T13" t="n">
-        <v>125.0532514830873</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>249.9309435563368</v>
+        <v>168.5361140699368</v>
       </c>
       <c r="V13" t="n">
-        <v>215.8137531537844</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>250.1991081665473</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.2607631820512</v>
+        <v>182.2607631820511</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>314.4000272007236</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>341.6473556523024</v>
       </c>
       <c r="F14" t="n">
         <v>366.5930313217521</v>
@@ -1625,7 +1625,7 @@
         <v>272.3214002190968</v>
       </c>
       <c r="I14" t="n">
-        <v>69.04110039678858</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>108.9485572167631</v>
+        <v>62.63050648831765</v>
       </c>
       <c r="T14" t="n">
         <v>171.3274089335725</v>
       </c>
       <c r="U14" t="n">
-        <v>210.852739208186</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>287.4692440501755</v>
       </c>
       <c r="W14" t="n">
-        <v>308.9579542974536</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>35.92559727993778</v>
+        <v>329.4480862585096</v>
       </c>
       <c r="Y14" t="n">
         <v>345.9549242360942</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.5489657619779</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9638066786684</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>108.332458598253</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>105.1380336029719</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.7767815292575</v>
+        <v>111.4802703794759</v>
       </c>
       <c r="I16" t="n">
-        <v>79.77426977306752</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.09177920282428</v>
       </c>
       <c r="S16" t="n">
         <v>163.2230797967222</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>182.6339173163364</v>
       </c>
       <c r="U16" t="n">
-        <v>245.9718193064211</v>
+        <v>245.971819306421</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>211.8546289038686</v>
       </c>
       <c r="W16" t="n">
         <v>246.2399839166316</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>41.4992918678828</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3016389321354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>300.1061709347963</v>
       </c>
       <c r="C17" t="n">
-        <v>282.6452210423233</v>
+        <v>282.6452210423232</v>
       </c>
       <c r="D17" t="n">
         <v>272.0553708919987</v>
@@ -1862,7 +1862,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I17" t="n">
-        <v>26.69644408806367</v>
+        <v>26.69644408806366</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.60390090803818</v>
+        <v>66.60390090803816</v>
       </c>
       <c r="T17" t="n">
-        <v>128.9827526248476</v>
+        <v>128.9827526248475</v>
       </c>
       <c r="U17" t="n">
         <v>168.508082899461</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.204309453253</v>
+        <v>97.20430945325299</v>
       </c>
       <c r="C19" t="n">
-        <v>84.61915036994354</v>
+        <v>84.61915036994353</v>
       </c>
       <c r="D19" t="n">
-        <v>65.98780228952806</v>
+        <v>65.98780228952805</v>
       </c>
       <c r="E19" t="n">
-        <v>63.80629191788488</v>
+        <v>63.80629191788486</v>
       </c>
       <c r="F19" t="n">
-        <v>62.79337729424695</v>
+        <v>62.79337729424694</v>
       </c>
       <c r="G19" t="n">
-        <v>84.18638874441611</v>
+        <v>84.18638874441609</v>
       </c>
       <c r="H19" t="n">
-        <v>69.13561407075096</v>
+        <v>69.13561407075095</v>
       </c>
       <c r="I19" t="n">
-        <v>37.42961346434262</v>
+        <v>37.42961346434261</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74712289409938</v>
+        <v>41.74712289409937</v>
       </c>
       <c r="S19" t="n">
         <v>120.8784234879973</v>
@@ -2056,7 +2056,7 @@
         <v>140.2892610076115</v>
       </c>
       <c r="U19" t="n">
-        <v>203.6271629976962</v>
+        <v>203.6271629976961</v>
       </c>
       <c r="V19" t="n">
         <v>169.5099725951437</v>
@@ -2065,7 +2065,7 @@
         <v>203.8953276079067</v>
       </c>
       <c r="X19" t="n">
-        <v>143.0819846603529</v>
+        <v>143.0819846603528</v>
       </c>
       <c r="Y19" t="n">
         <v>135.9569826234105</v>
@@ -2081,7 +2081,7 @@
         <v>300.1061709347963</v>
       </c>
       <c r="C20" t="n">
-        <v>282.6452210423233</v>
+        <v>282.6452210423232</v>
       </c>
       <c r="D20" t="n">
         <v>272.0553708919987</v>
@@ -2099,7 +2099,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I20" t="n">
-        <v>26.69644408806367</v>
+        <v>26.69644408806366</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.60390090803818</v>
+        <v>66.60390090803816</v>
       </c>
       <c r="T20" t="n">
-        <v>128.9827526248476</v>
+        <v>128.9827526248475</v>
       </c>
       <c r="U20" t="n">
         <v>168.508082899461</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.204309453253</v>
+        <v>97.20430945325299</v>
       </c>
       <c r="C22" t="n">
-        <v>84.61915036994354</v>
+        <v>84.61915036994353</v>
       </c>
       <c r="D22" t="n">
-        <v>65.98780228952806</v>
+        <v>65.98780228952805</v>
       </c>
       <c r="E22" t="n">
-        <v>63.80629191788488</v>
+        <v>63.80629191788486</v>
       </c>
       <c r="F22" t="n">
-        <v>62.79337729424695</v>
+        <v>62.79337729424694</v>
       </c>
       <c r="G22" t="n">
-        <v>84.18638874441611</v>
+        <v>84.18638874441609</v>
       </c>
       <c r="H22" t="n">
-        <v>69.13561407075096</v>
+        <v>69.13561407075095</v>
       </c>
       <c r="I22" t="n">
-        <v>37.42961346434262</v>
+        <v>37.42961346434261</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.74712289409938</v>
+        <v>41.74712289409937</v>
       </c>
       <c r="S22" t="n">
         <v>120.8784234879973</v>
@@ -2293,7 +2293,7 @@
         <v>140.2892610076115</v>
       </c>
       <c r="U22" t="n">
-        <v>203.6271629976962</v>
+        <v>203.6271629976961</v>
       </c>
       <c r="V22" t="n">
         <v>169.5099725951437</v>
@@ -2302,7 +2302,7 @@
         <v>203.8953276079067</v>
       </c>
       <c r="X22" t="n">
-        <v>143.0819846603529</v>
+        <v>143.0819846603528</v>
       </c>
       <c r="Y22" t="n">
         <v>135.9569826234105</v>
@@ -2336,7 +2336,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I23" t="n">
-        <v>26.69644408806366</v>
+        <v>26.6964440880637</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.60390090803816</v>
+        <v>66.6039009080382</v>
       </c>
       <c r="T23" t="n">
         <v>128.9827526248476</v>
       </c>
       <c r="U23" t="n">
-        <v>168.508082899461</v>
+        <v>168.5080828994611</v>
       </c>
       <c r="V23" t="n">
         <v>245.1245877414506</v>
@@ -2415,7 +2415,7 @@
         <v>98.67744828099856</v>
       </c>
       <c r="I24" t="n">
-        <v>41.06317769671095</v>
+        <v>41.06317769671096</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.99752954500087</v>
+        <v>12.99752954500089</v>
       </c>
       <c r="S24" t="n">
         <v>145.6077338324783</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.204309453253</v>
+        <v>97.20430945325303</v>
       </c>
       <c r="C25" t="n">
-        <v>84.61915036994354</v>
+        <v>84.61915036994357</v>
       </c>
       <c r="D25" t="n">
-        <v>65.98780228952806</v>
+        <v>65.98780228952809</v>
       </c>
       <c r="E25" t="n">
-        <v>63.80629191788488</v>
+        <v>63.80629191788491</v>
       </c>
       <c r="F25" t="n">
-        <v>62.79337729424695</v>
+        <v>62.79337729424698</v>
       </c>
       <c r="G25" t="n">
-        <v>84.18638874441611</v>
+        <v>84.18638874441613</v>
       </c>
       <c r="H25" t="n">
-        <v>69.13561407075096</v>
+        <v>69.135614070751</v>
       </c>
       <c r="I25" t="n">
-        <v>37.42961346434262</v>
+        <v>37.42961346434265</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74712289409938</v>
+        <v>41.74712289409941</v>
       </c>
       <c r="S25" t="n">
         <v>120.8784234879973</v>
@@ -2573,7 +2573,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I26" t="n">
-        <v>26.69644408806369</v>
+        <v>26.6964440880637</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.60390090803818</v>
+        <v>66.6039009080382</v>
       </c>
       <c r="T26" t="n">
         <v>128.9827526248476</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.20430945325302</v>
+        <v>97.20430945325303</v>
       </c>
       <c r="C28" t="n">
-        <v>84.61915036994355</v>
+        <v>84.61915036994357</v>
       </c>
       <c r="D28" t="n">
-        <v>65.98780228952808</v>
+        <v>65.98780228952809</v>
       </c>
       <c r="E28" t="n">
-        <v>63.80629191788489</v>
+        <v>63.80629191788491</v>
       </c>
       <c r="F28" t="n">
-        <v>62.79337729424697</v>
+        <v>62.79337729424698</v>
       </c>
       <c r="G28" t="n">
-        <v>84.18638874441612</v>
+        <v>84.18638874441613</v>
       </c>
       <c r="H28" t="n">
-        <v>69.13561407075098</v>
+        <v>69.135614070751</v>
       </c>
       <c r="I28" t="n">
-        <v>37.42961346434264</v>
+        <v>37.42961346434265</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7471228940994</v>
+        <v>41.74712289409941</v>
       </c>
       <c r="S28" t="n">
         <v>120.8784234879973</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>304.0652951847121</v>
+        <v>304.065295184712</v>
       </c>
       <c r="C29" t="n">
         <v>286.604345292239</v>
@@ -2798,19 +2798,19 @@
         <v>276.0144951419144</v>
       </c>
       <c r="E29" t="n">
-        <v>303.2618235934933</v>
+        <v>303.2618235934932</v>
       </c>
       <c r="F29" t="n">
         <v>328.2074992629429</v>
       </c>
       <c r="G29" t="n">
-        <v>334.0104500402273</v>
+        <v>334.0104500402272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.9358681602877</v>
+        <v>233.9358681602876</v>
       </c>
       <c r="I29" t="n">
-        <v>30.65556833797945</v>
+        <v>30.65556833797937</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.56302515795394</v>
+        <v>70.56302515795386</v>
       </c>
       <c r="T29" t="n">
         <v>132.9418768747633</v>
       </c>
       <c r="U29" t="n">
-        <v>172.4672071493768</v>
+        <v>172.4672071493767</v>
       </c>
       <c r="V29" t="n">
-        <v>249.0837119913664</v>
+        <v>249.0837119913663</v>
       </c>
       <c r="W29" t="n">
-        <v>270.5724222386445</v>
+        <v>270.5724222386444</v>
       </c>
       <c r="X29" t="n">
         <v>291.0625541997005</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.5693921772851</v>
+        <v>307.569392177285</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.1634337031688</v>
+        <v>101.1634337031687</v>
       </c>
       <c r="C31" t="n">
-        <v>88.57827461985931</v>
+        <v>88.57827461985924</v>
       </c>
       <c r="D31" t="n">
-        <v>69.94692653944384</v>
+        <v>69.94692653944377</v>
       </c>
       <c r="E31" t="n">
-        <v>67.76541616780065</v>
+        <v>67.76541616780058</v>
       </c>
       <c r="F31" t="n">
-        <v>66.75250154416273</v>
+        <v>66.75250154416266</v>
       </c>
       <c r="G31" t="n">
-        <v>88.14551299433188</v>
+        <v>88.14551299433181</v>
       </c>
       <c r="H31" t="n">
-        <v>73.09473832066674</v>
+        <v>73.09473832066668</v>
       </c>
       <c r="I31" t="n">
-        <v>41.3887377142584</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.70624714401516</v>
+        <v>45.70624714401509</v>
       </c>
       <c r="S31" t="n">
-        <v>124.8375477379131</v>
+        <v>124.837547737913</v>
       </c>
       <c r="T31" t="n">
-        <v>144.2483852575273</v>
+        <v>144.2483852575272</v>
       </c>
       <c r="U31" t="n">
-        <v>207.5862872476119</v>
+        <v>154.5863355444802</v>
       </c>
       <c r="V31" t="n">
-        <v>173.4690968450595</v>
+        <v>173.4690968450594</v>
       </c>
       <c r="W31" t="n">
-        <v>207.8544518578225</v>
+        <v>207.8544518578224</v>
       </c>
       <c r="X31" t="n">
-        <v>52.65241949287702</v>
+        <v>147.0411089102686</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.9161068733263</v>
+        <v>139.9161068733262</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I32" t="n">
-        <v>26.6964440880637</v>
+        <v>26.69644408806369</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.6039009080382</v>
+        <v>66.60390090803818</v>
       </c>
       <c r="T32" t="n">
         <v>128.9827526248476</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.20430945325303</v>
+        <v>97.20430945325302</v>
       </c>
       <c r="C34" t="n">
-        <v>84.61915036994357</v>
+        <v>84.61915036994355</v>
       </c>
       <c r="D34" t="n">
-        <v>65.98780228952809</v>
+        <v>65.98780228952808</v>
       </c>
       <c r="E34" t="n">
-        <v>63.80629191788491</v>
+        <v>63.80629191788489</v>
       </c>
       <c r="F34" t="n">
-        <v>62.79337729424698</v>
+        <v>62.79337729424697</v>
       </c>
       <c r="G34" t="n">
-        <v>84.18638874441613</v>
+        <v>84.18638874441612</v>
       </c>
       <c r="H34" t="n">
-        <v>69.135614070751</v>
+        <v>69.13561407075099</v>
       </c>
       <c r="I34" t="n">
-        <v>37.42961346434265</v>
+        <v>37.42961346434264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74712289409941</v>
+        <v>41.74712289409939</v>
       </c>
       <c r="S34" t="n">
         <v>120.8784234879973</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.1061709347963</v>
+        <v>300.1061709347962</v>
       </c>
       <c r="C38" t="n">
-        <v>282.6452210423233</v>
+        <v>282.6452210423232</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0553708919987</v>
+        <v>272.0553708919986</v>
       </c>
       <c r="E38" t="n">
-        <v>299.3026993435775</v>
+        <v>299.3026993435774</v>
       </c>
       <c r="F38" t="n">
-        <v>324.2483750130272</v>
+        <v>324.2483750130271</v>
       </c>
       <c r="G38" t="n">
         <v>330.0513257903115</v>
@@ -3521,7 +3521,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I38" t="n">
-        <v>26.69644408806367</v>
+        <v>26.69644408806364</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.60390090803817</v>
+        <v>66.60390090803814</v>
       </c>
       <c r="T38" t="n">
         <v>128.9827526248475</v>
@@ -3566,7 +3566,7 @@
         <v>266.6132979887287</v>
       </c>
       <c r="X38" t="n">
-        <v>287.1034299497848</v>
+        <v>287.1034299497847</v>
       </c>
       <c r="Y38" t="n">
         <v>303.6102679273693</v>
@@ -3597,10 +3597,10 @@
         <v>135.9396919689084</v>
       </c>
       <c r="H39" t="n">
-        <v>98.67744828099856</v>
+        <v>98.67744828099858</v>
       </c>
       <c r="I39" t="n">
-        <v>41.06317769671096</v>
+        <v>41.06317769671097</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>12.99752954500089</v>
+        <v>12.9975295450009</v>
       </c>
       <c r="S39" t="n">
-        <v>145.6077338324783</v>
+        <v>145.6077338324784</v>
       </c>
       <c r="T39" t="n">
         <v>194.5063280212964</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.204309453253</v>
+        <v>97.20430945325296</v>
       </c>
       <c r="C40" t="n">
-        <v>84.61915036994354</v>
+        <v>84.6191503699435</v>
       </c>
       <c r="D40" t="n">
-        <v>65.98780228952806</v>
+        <v>65.98780228952802</v>
       </c>
       <c r="E40" t="n">
-        <v>63.80629191788488</v>
+        <v>63.80629191788483</v>
       </c>
       <c r="F40" t="n">
-        <v>62.79337729424695</v>
+        <v>62.79337729424691</v>
       </c>
       <c r="G40" t="n">
-        <v>84.18638874441611</v>
+        <v>84.18638874441606</v>
       </c>
       <c r="H40" t="n">
-        <v>69.13561407075096</v>
+        <v>69.13561407075092</v>
       </c>
       <c r="I40" t="n">
-        <v>37.42961346434262</v>
+        <v>37.42961346434259</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74712289409938</v>
+        <v>41.74712289409935</v>
       </c>
       <c r="S40" t="n">
         <v>120.8784234879973</v>
@@ -3715,7 +3715,7 @@
         <v>140.2892610076115</v>
       </c>
       <c r="U40" t="n">
-        <v>203.6271629976962</v>
+        <v>203.6271629976961</v>
       </c>
       <c r="V40" t="n">
         <v>169.5099725951437</v>
@@ -3724,7 +3724,7 @@
         <v>203.8953276079067</v>
       </c>
       <c r="X40" t="n">
-        <v>143.0819846603529</v>
+        <v>143.0819846603528</v>
       </c>
       <c r="Y40" t="n">
         <v>135.9569826234105</v>
@@ -3740,7 +3740,7 @@
         <v>300.1061709347963</v>
       </c>
       <c r="C41" t="n">
-        <v>282.6452210423232</v>
+        <v>282.6452210423233</v>
       </c>
       <c r="D41" t="n">
         <v>272.0553708919987</v>
@@ -3758,7 +3758,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I41" t="n">
-        <v>26.69644408806366</v>
+        <v>26.69644408806371</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.60390090803816</v>
+        <v>66.60390090803823</v>
       </c>
       <c r="T41" t="n">
-        <v>128.9827526248475</v>
+        <v>128.9827526248476</v>
       </c>
       <c r="U41" t="n">
-        <v>168.508082899461</v>
+        <v>168.5080828994611</v>
       </c>
       <c r="V41" t="n">
         <v>245.1245877414506</v>
@@ -3834,10 +3834,10 @@
         <v>135.9396919689084</v>
       </c>
       <c r="H42" t="n">
-        <v>98.67744828099856</v>
+        <v>98.67744828099858</v>
       </c>
       <c r="I42" t="n">
-        <v>41.06317769671096</v>
+        <v>41.06317769671097</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>12.99752954500089</v>
+        <v>12.9975295450009</v>
       </c>
       <c r="S42" t="n">
-        <v>145.6077338324783</v>
+        <v>145.6077338324784</v>
       </c>
       <c r="T42" t="n">
         <v>194.5063280212964</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.20430945325299</v>
+        <v>97.20430945325303</v>
       </c>
       <c r="C43" t="n">
-        <v>84.61915036994353</v>
+        <v>84.61915036994357</v>
       </c>
       <c r="D43" t="n">
-        <v>65.98780228952805</v>
+        <v>65.98780228952809</v>
       </c>
       <c r="E43" t="n">
-        <v>63.80629191788486</v>
+        <v>63.80629191788491</v>
       </c>
       <c r="F43" t="n">
-        <v>62.79337729424694</v>
+        <v>62.79337729424698</v>
       </c>
       <c r="G43" t="n">
-        <v>84.18638874441609</v>
+        <v>84.18638874441613</v>
       </c>
       <c r="H43" t="n">
-        <v>69.13561407075096</v>
+        <v>69.135614070751</v>
       </c>
       <c r="I43" t="n">
-        <v>37.42961346434261</v>
+        <v>37.42961346434267</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74712289409936</v>
+        <v>41.74712289409942</v>
       </c>
       <c r="S43" t="n">
-        <v>120.8784234879973</v>
+        <v>120.8784234879974</v>
       </c>
       <c r="T43" t="n">
         <v>140.2892610076115</v>
@@ -3961,7 +3961,7 @@
         <v>203.8953276079067</v>
       </c>
       <c r="X43" t="n">
-        <v>143.0819846603528</v>
+        <v>143.0819846603529</v>
       </c>
       <c r="Y43" t="n">
         <v>135.9569826234105</v>
@@ -3977,7 +3977,7 @@
         <v>300.1061709347963</v>
       </c>
       <c r="C44" t="n">
-        <v>282.6452210423232</v>
+        <v>282.6452210423233</v>
       </c>
       <c r="D44" t="n">
         <v>272.0553708919987</v>
@@ -3995,7 +3995,7 @@
         <v>229.9767439103719</v>
       </c>
       <c r="I44" t="n">
-        <v>26.69644408806367</v>
+        <v>26.6964440880637</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.60390090803817</v>
+        <v>66.60390090803821</v>
       </c>
       <c r="T44" t="n">
-        <v>128.9827526248475</v>
+        <v>128.9827526248476</v>
       </c>
       <c r="U44" t="n">
-        <v>168.508082899461</v>
+        <v>168.5080828994611</v>
       </c>
       <c r="V44" t="n">
         <v>245.1245877414506</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.20430945325299</v>
+        <v>97.20430945325302</v>
       </c>
       <c r="C46" t="n">
-        <v>84.61915036994353</v>
+        <v>84.61915036994355</v>
       </c>
       <c r="D46" t="n">
-        <v>65.98780228952805</v>
+        <v>65.98780228952808</v>
       </c>
       <c r="E46" t="n">
-        <v>63.80629191788486</v>
+        <v>63.80629191788489</v>
       </c>
       <c r="F46" t="n">
-        <v>62.79337729424694</v>
+        <v>62.79337729424697</v>
       </c>
       <c r="G46" t="n">
-        <v>84.18638874441609</v>
+        <v>84.18638874441612</v>
       </c>
       <c r="H46" t="n">
-        <v>69.13561407075095</v>
+        <v>69.13561407075099</v>
       </c>
       <c r="I46" t="n">
-        <v>37.42961346434262</v>
+        <v>37.42961346434265</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74712289409938</v>
+        <v>41.74712289409941</v>
       </c>
       <c r="S46" t="n">
         <v>120.8784234879973</v>
@@ -4198,7 +4198,7 @@
         <v>203.8953276079067</v>
       </c>
       <c r="X46" t="n">
-        <v>143.0819846603528</v>
+        <v>143.0819846603529</v>
       </c>
       <c r="Y46" t="n">
         <v>135.9569826234105</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
-        <v>39.08434099311135</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F8" t="n">
-        <v>32.13884024390788</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68152962255934</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
         <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.15433024019471</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O9" t="n">
         <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="V9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>1.978351653996518</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
         <v>1.224219001210804</v>
@@ -4972,7 +4972,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4981,31 +4981,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W10" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X10" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.13649748135</v>
+        <v>1029.770706884069</v>
       </c>
       <c r="C11" t="n">
-        <v>1450.13649748135</v>
+        <v>785.3257090211749</v>
       </c>
       <c r="D11" t="n">
-        <v>1128.561597026159</v>
+        <v>785.3257090211749</v>
       </c>
       <c r="E11" t="n">
-        <v>779.464142579474</v>
+        <v>785.3257090211749</v>
       </c>
       <c r="F11" t="n">
-        <v>405.1690359414255</v>
+        <v>785.3257090211749</v>
       </c>
       <c r="G11" t="n">
-        <v>405.1690359414255</v>
+        <v>405.1690359414254</v>
       </c>
       <c r="H11" t="n">
-        <v>126.0977991040391</v>
+        <v>126.097799104039</v>
       </c>
       <c r="I11" t="n">
         <v>52.36019845080239</v>
@@ -5045,16 +5045,16 @@
         <v>206.1078672324841</v>
       </c>
       <c r="L11" t="n">
-        <v>796.0892659929028</v>
+        <v>530.2277991941921</v>
       </c>
       <c r="M11" t="n">
-        <v>1444.046721821582</v>
+        <v>1178.185255022872</v>
       </c>
       <c r="N11" t="n">
-        <v>1680.406847501635</v>
+        <v>1826.142710851551</v>
       </c>
       <c r="O11" t="n">
-        <v>2094.407072260054</v>
+        <v>2412.987793349821</v>
       </c>
       <c r="P11" t="n">
         <v>2557.591390123961</v>
@@ -5072,19 +5072,19 @@
         <v>2326.904655216718</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.922974956009</v>
+        <v>2326.904655216718</v>
       </c>
       <c r="V11" t="n">
-        <v>1815.550885763998</v>
+        <v>2032.532566024707</v>
       </c>
       <c r="W11" t="n">
-        <v>1800.045539393913</v>
+        <v>1716.454708906152</v>
       </c>
       <c r="X11" t="n">
-        <v>1800.045539393913</v>
+        <v>1379.679748796632</v>
       </c>
       <c r="Y11" t="n">
-        <v>1800.045539393913</v>
+        <v>1379.679748796632</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959.9846179945971</v>
+        <v>959.9846179945976</v>
       </c>
       <c r="C12" t="n">
-        <v>785.5315887134701</v>
+        <v>785.5315887134706</v>
       </c>
       <c r="D12" t="n">
-        <v>636.5971790522187</v>
+        <v>636.5971790522192</v>
       </c>
       <c r="E12" t="n">
-        <v>477.3597240467632</v>
+        <v>477.3597240467636</v>
       </c>
       <c r="F12" t="n">
-        <v>330.8251660736482</v>
+        <v>330.8251660736487</v>
       </c>
       <c r="G12" t="n">
         <v>193.5123459030342</v>
@@ -5127,16 +5127,16 @@
         <v>1064.426778278431</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.980266076534</v>
+        <v>1712.38423410711</v>
       </c>
       <c r="N12" t="n">
-        <v>2256.937721905213</v>
+        <v>1943.816359736535</v>
       </c>
       <c r="O12" t="n">
-        <v>2446.433107721705</v>
+        <v>2238.456592863214</v>
       </c>
       <c r="P12" t="n">
-        <v>2579.18679480448</v>
+        <v>2371.210279945989</v>
       </c>
       <c r="Q12" t="n">
         <v>2618.009922540119</v>
@@ -5151,19 +5151,19 @@
         <v>2261.331547389841</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.201218945096</v>
+        <v>2033.201218945097</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.049110713353</v>
+        <v>1798.049110713354</v>
       </c>
       <c r="W12" t="n">
         <v>1543.811753985152</v>
       </c>
       <c r="X12" t="n">
-        <v>1335.960253779619</v>
+        <v>1335.96025377962</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.199955014665</v>
+        <v>1128.199955014666</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4333277785815</v>
+        <v>651.2611210863806</v>
       </c>
       <c r="C13" t="n">
-        <v>280.1879430022339</v>
+        <v>519.015736310033</v>
       </c>
       <c r="D13" t="n">
-        <v>280.1879430022339</v>
+        <v>405.5898950492567</v>
       </c>
       <c r="E13" t="n">
-        <v>168.9656475713999</v>
+        <v>294.3675996184228</v>
       </c>
       <c r="F13" t="n">
-        <v>168.9656475713999</v>
+        <v>184.1684502720718</v>
       </c>
       <c r="G13" t="n">
-        <v>168.9656475713999</v>
+        <v>52.36019845080239</v>
       </c>
       <c r="H13" t="n">
         <v>52.36019845080239</v>
@@ -5197,52 +5197,52 @@
         <v>52.36019845080239</v>
       </c>
       <c r="J13" t="n">
-        <v>78.27141493952709</v>
+        <v>78.27141493952718</v>
       </c>
       <c r="K13" t="n">
-        <v>227.5545945141645</v>
+        <v>227.5545945141647</v>
       </c>
       <c r="L13" t="n">
-        <v>464.0555010365761</v>
+        <v>464.0555010365763</v>
       </c>
       <c r="M13" t="n">
-        <v>721.846856746249</v>
+        <v>721.8468567462493</v>
       </c>
       <c r="N13" t="n">
-        <v>979.7981905421639</v>
+        <v>979.7981905421642</v>
       </c>
       <c r="O13" t="n">
-        <v>1204.786871843372</v>
+        <v>1204.786871843373</v>
       </c>
       <c r="P13" t="n">
-        <v>1378.972976177228</v>
+        <v>1378.972976177229</v>
       </c>
       <c r="Q13" t="n">
         <v>1427.198686202717</v>
       </c>
       <c r="R13" t="n">
-        <v>1338.258379684797</v>
+        <v>1427.198686202717</v>
       </c>
       <c r="S13" t="n">
-        <v>1338.258379684797</v>
+        <v>1258.327773024295</v>
       </c>
       <c r="T13" t="n">
-        <v>1211.941964045315</v>
+        <v>1258.327773024295</v>
       </c>
       <c r="U13" t="n">
-        <v>959.4864655035605</v>
+        <v>1088.089273963753</v>
       </c>
       <c r="V13" t="n">
-        <v>741.4927754492328</v>
+        <v>1088.089273963753</v>
       </c>
       <c r="W13" t="n">
-        <v>741.4927754492328</v>
+        <v>835.3629020783515</v>
       </c>
       <c r="X13" t="n">
-        <v>741.4927754492328</v>
+        <v>835.3629020783515</v>
       </c>
       <c r="Y13" t="n">
-        <v>557.390994457262</v>
+        <v>651.2611210863806</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1809.914619292682</v>
+        <v>2085.27447308613</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.642015907785</v>
+        <v>1757.001869701233</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.066230856549</v>
+        <v>1439.426084649997</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.066230856549</v>
+        <v>1094.327745607267</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7702396224556</v>
+        <v>724.0317543731742</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6126819466612</v>
+        <v>347.8741966973798</v>
       </c>
       <c r="H14" t="n">
-        <v>142.5405605132301</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="I14" t="n">
         <v>72.80207526394868</v>
       </c>
       <c r="J14" t="n">
-        <v>114.0264997798911</v>
+        <v>281.4321488002441</v>
       </c>
       <c r="K14" t="n">
-        <v>372.2794733345955</v>
+        <v>714.8593515114364</v>
       </c>
       <c r="L14" t="n">
-        <v>962.2608720950143</v>
+        <v>1304.840750271855</v>
       </c>
       <c r="M14" t="n">
         <v>1635.335400934369</v>
@@ -5303,25 +5303,25 @@
         <v>3640.103763197434</v>
       </c>
       <c r="S14" t="n">
-        <v>3530.054715503733</v>
+        <v>3576.840625330446</v>
       </c>
       <c r="T14" t="n">
-        <v>3356.996726681943</v>
+        <v>3403.782636508656</v>
       </c>
       <c r="U14" t="n">
-        <v>3144.01416182519</v>
+        <v>3403.782636508656</v>
       </c>
       <c r="V14" t="n">
-        <v>2853.641188037133</v>
+        <v>3113.4096627206</v>
       </c>
       <c r="W14" t="n">
-        <v>2541.562446322534</v>
+        <v>3113.4096627206</v>
       </c>
       <c r="X14" t="n">
-        <v>2505.273964221587</v>
+        <v>2780.633818015035</v>
       </c>
       <c r="Y14" t="n">
-        <v>2155.824545801289</v>
+        <v>2431.184399594738</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>960.0385301045724</v>
       </c>
       <c r="M15" t="n">
-        <v>1171.466150820422</v>
+        <v>1363.422007630326</v>
       </c>
       <c r="N15" t="n">
-        <v>1877.447227049965</v>
+        <v>2069.403083859869</v>
       </c>
       <c r="O15" t="n">
-        <v>2066.942612866457</v>
+        <v>2258.898469676361</v>
       </c>
       <c r="P15" t="n">
-        <v>2514.97444090277</v>
+        <v>2391.652156759136</v>
       </c>
       <c r="Q15" t="n">
         <v>2638.451799353266</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.8801728187429</v>
+        <v>291.6084429229865</v>
       </c>
       <c r="C16" t="n">
-        <v>367.6339034463506</v>
+        <v>291.6084429229865</v>
       </c>
       <c r="D16" t="n">
-        <v>258.2071775895295</v>
+        <v>291.6084429229865</v>
       </c>
       <c r="E16" t="n">
-        <v>258.2071775895295</v>
+        <v>291.6084429229865</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2071775895295</v>
+        <v>185.408408980591</v>
       </c>
       <c r="G16" t="n">
-        <v>258.2071775895295</v>
+        <v>185.408408980591</v>
       </c>
       <c r="H16" t="n">
-        <v>153.3821457417947</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="I16" t="n">
         <v>72.80207526394868</v>
@@ -5440,7 +5440,7 @@
         <v>255.8355373421441</v>
       </c>
       <c r="L16" t="n">
-        <v>496.2559768719722</v>
+        <v>496.2559768719721</v>
       </c>
       <c r="M16" t="n">
         <v>757.9668655890617</v>
@@ -5458,28 +5458,28 @@
         <v>1478.996827075196</v>
       </c>
       <c r="R16" t="n">
-        <v>1478.996827075196</v>
+        <v>1394.055635961232</v>
       </c>
       <c r="S16" t="n">
-        <v>1314.125029300729</v>
+        <v>1229.183838186765</v>
       </c>
       <c r="T16" t="n">
-        <v>1314.125029300729</v>
+        <v>1044.705133826829</v>
       </c>
       <c r="U16" t="n">
-        <v>1065.66864616293</v>
+        <v>796.24875068903</v>
       </c>
       <c r="V16" t="n">
-        <v>1065.66864616293</v>
+        <v>582.2541760386575</v>
       </c>
       <c r="W16" t="n">
-        <v>816.9413896814835</v>
+        <v>333.5269195572115</v>
       </c>
       <c r="X16" t="n">
-        <v>816.9413896814835</v>
+        <v>291.6084429229865</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.838724093468</v>
+        <v>291.6084429229865</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.60629756665</v>
+        <v>1855.606297566649</v>
       </c>
       <c r="C17" t="n">
-        <v>1570.106074291576</v>
+        <v>1570.106074291575</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.302669350163</v>
+        <v>1295.302669350162</v>
       </c>
       <c r="E17" t="n">
         <v>992.9767104172561</v>
       </c>
       <c r="F17" t="n">
-        <v>665.4530992929862</v>
+        <v>665.4530992929861</v>
       </c>
       <c r="G17" t="n">
         <v>332.0679217270149</v>
       </c>
       <c r="H17" t="n">
-        <v>99.76818040340694</v>
+        <v>99.76818040340692</v>
       </c>
       <c r="I17" t="n">
         <v>72.80207526394868</v>
       </c>
       <c r="J17" t="n">
-        <v>281.4321488002441</v>
+        <v>114.0264997798911</v>
       </c>
       <c r="K17" t="n">
-        <v>714.8593515114364</v>
+        <v>547.4537024910834</v>
       </c>
       <c r="L17" t="n">
-        <v>1304.840750271855</v>
+        <v>962.2608720950143</v>
       </c>
       <c r="M17" t="n">
-        <v>1650.130408817874</v>
+        <v>1635.335400934369</v>
       </c>
       <c r="N17" t="n">
-        <v>2319.463989665792</v>
+        <v>2304.668981782286</v>
       </c>
       <c r="O17" t="n">
-        <v>2906.309072164062</v>
+        <v>2891.514064280556</v>
       </c>
       <c r="P17" t="n">
-        <v>3369.49339002797</v>
+        <v>3354.698382144464</v>
       </c>
       <c r="Q17" t="n">
-        <v>3640.103763197434</v>
+        <v>3625.308755313928</v>
       </c>
       <c r="R17" t="n">
         <v>3640.103763197434</v>
@@ -5546,19 +5546,19 @@
         <v>3442.541486901589</v>
       </c>
       <c r="U17" t="n">
-        <v>3272.33130215466</v>
+        <v>3272.331302154659</v>
       </c>
       <c r="V17" t="n">
-        <v>3024.730708476427</v>
+        <v>3024.730708476426</v>
       </c>
       <c r="W17" t="n">
         <v>2755.42434687165</v>
       </c>
       <c r="X17" t="n">
-        <v>2465.420882275908</v>
+        <v>2465.420882275907</v>
       </c>
       <c r="Y17" t="n">
-        <v>2158.743843965434</v>
+        <v>2158.743843965433</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>72.80207526394868</v>
       </c>
       <c r="J18" t="n">
-        <v>78.53721313307051</v>
+        <v>203.3673381200753</v>
       </c>
       <c r="K18" t="n">
-        <v>428.314886598097</v>
+        <v>553.1450115851017</v>
       </c>
       <c r="L18" t="n">
-        <v>960.0385301045724</v>
+        <v>717.7367132411524</v>
       </c>
       <c r="M18" t="n">
-        <v>1171.466150820422</v>
+        <v>1390.212347069502</v>
       </c>
       <c r="N18" t="n">
-        <v>1877.447227049965</v>
+        <v>2096.193423299045</v>
       </c>
       <c r="O18" t="n">
-        <v>2151.596843581314</v>
+        <v>2466.874984534852</v>
       </c>
       <c r="P18" t="n">
         <v>2599.628671617627</v>
@@ -5674,19 +5674,19 @@
         <v>144.5540345057277</v>
       </c>
       <c r="K19" t="n">
-        <v>339.6779568334191</v>
+        <v>339.6779568334186</v>
       </c>
       <c r="L19" t="n">
-        <v>622.0196061088849</v>
+        <v>622.0196061088844</v>
       </c>
       <c r="M19" t="n">
-        <v>925.6517045716121</v>
+        <v>925.6517045716116</v>
       </c>
       <c r="N19" t="n">
         <v>1229.443781120581</v>
       </c>
       <c r="O19" t="n">
-        <v>1500.273205174844</v>
+        <v>1500.273205174843</v>
       </c>
       <c r="P19" t="n">
         <v>1720.300052261754</v>
@@ -5735,40 +5735,40 @@
         <v>1295.302669350162</v>
       </c>
       <c r="E20" t="n">
-        <v>992.9767104172558</v>
+        <v>992.9767104172554</v>
       </c>
       <c r="F20" t="n">
-        <v>665.4530992929862</v>
+        <v>665.4530992929856</v>
       </c>
       <c r="G20" t="n">
-        <v>332.0679217270149</v>
+        <v>332.0679217270144</v>
       </c>
       <c r="H20" t="n">
-        <v>99.76818040340694</v>
+        <v>99.76818040340692</v>
       </c>
       <c r="I20" t="n">
         <v>72.80207526394868</v>
       </c>
       <c r="J20" t="n">
-        <v>281.4321488002441</v>
+        <v>114.0264997798911</v>
       </c>
       <c r="K20" t="n">
-        <v>714.8593515114364</v>
+        <v>547.4537024910834</v>
       </c>
       <c r="L20" t="n">
-        <v>1304.840750271855</v>
+        <v>1137.435101251502</v>
       </c>
       <c r="M20" t="n">
-        <v>1977.91527911121</v>
+        <v>1810.509630090857</v>
       </c>
       <c r="N20" t="n">
-        <v>2647.248859959127</v>
+        <v>2479.843210938774</v>
       </c>
       <c r="O20" t="n">
-        <v>3234.093942457397</v>
+        <v>3066.688293437044</v>
       </c>
       <c r="P20" t="n">
-        <v>3378.697539231537</v>
+        <v>3529.872611300952</v>
       </c>
       <c r="Q20" t="n">
         <v>3640.103763197434</v>
@@ -5777,10 +5777,10 @@
         <v>3640.103763197434</v>
       </c>
       <c r="S20" t="n">
-        <v>3572.827095613557</v>
+        <v>3572.827095613556</v>
       </c>
       <c r="T20" t="n">
-        <v>3442.54148690159</v>
+        <v>3442.541486901589</v>
       </c>
       <c r="U20" t="n">
         <v>3272.331302154659</v>
@@ -5829,19 +5829,19 @@
         <v>72.80207526394868</v>
       </c>
       <c r="J21" t="n">
-        <v>78.53721313307051</v>
+        <v>203.3673381200753</v>
       </c>
       <c r="K21" t="n">
-        <v>428.314886598097</v>
+        <v>553.1450115851017</v>
       </c>
       <c r="L21" t="n">
-        <v>960.0385301045724</v>
+        <v>1084.868655091577</v>
       </c>
       <c r="M21" t="n">
-        <v>1171.466150820422</v>
+        <v>1363.422007630326</v>
       </c>
       <c r="N21" t="n">
-        <v>1679.479387775907</v>
+        <v>2069.403083859869</v>
       </c>
       <c r="O21" t="n">
         <v>2258.898469676361</v>
@@ -5917,13 +5917,13 @@
         <v>622.0196061088852</v>
       </c>
       <c r="M22" t="n">
-        <v>925.6517045716124</v>
+        <v>925.6517045716116</v>
       </c>
       <c r="N22" t="n">
         <v>1229.443781120581</v>
       </c>
       <c r="O22" t="n">
-        <v>1500.273205174844</v>
+        <v>1500.273205174843</v>
       </c>
       <c r="P22" t="n">
         <v>1720.300052261754</v>
@@ -5981,34 +5981,34 @@
         <v>332.0679217270149</v>
       </c>
       <c r="H23" t="n">
-        <v>99.76818040340692</v>
+        <v>99.76818040340697</v>
       </c>
       <c r="I23" t="n">
         <v>72.80207526394868</v>
       </c>
       <c r="J23" t="n">
-        <v>281.4321488002442</v>
+        <v>281.4321488002441</v>
       </c>
       <c r="K23" t="n">
-        <v>714.8593515114366</v>
+        <v>714.8593515114364</v>
       </c>
       <c r="L23" t="n">
-        <v>1304.840750271856</v>
+        <v>1304.840750271855</v>
       </c>
       <c r="M23" t="n">
         <v>1977.91527911121</v>
       </c>
       <c r="N23" t="n">
-        <v>2319.463989665792</v>
+        <v>2647.248859959127</v>
       </c>
       <c r="O23" t="n">
-        <v>2906.309072164063</v>
+        <v>2891.514064280557</v>
       </c>
       <c r="P23" t="n">
-        <v>3369.493390027971</v>
+        <v>3354.698382144465</v>
       </c>
       <c r="Q23" t="n">
-        <v>3640.103763197434</v>
+        <v>3625.308755313928</v>
       </c>
       <c r="R23" t="n">
         <v>3640.103763197434</v>
@@ -6054,7 +6054,7 @@
         <v>497.8016008599101</v>
       </c>
       <c r="F24" t="n">
-        <v>351.267042886795</v>
+        <v>351.2670428867951</v>
       </c>
       <c r="G24" t="n">
         <v>213.9542227161805</v>
@@ -6066,22 +6066,22 @@
         <v>72.80207526394868</v>
       </c>
       <c r="J24" t="n">
-        <v>78.53721313307054</v>
+        <v>203.3673381200753</v>
       </c>
       <c r="K24" t="n">
-        <v>428.314886598097</v>
+        <v>553.1450115851017</v>
       </c>
       <c r="L24" t="n">
-        <v>960.0385301045725</v>
+        <v>1084.868655091577</v>
       </c>
       <c r="M24" t="n">
-        <v>1448.047262146481</v>
+        <v>1522.692817276906</v>
       </c>
       <c r="N24" t="n">
-        <v>1679.479387775907</v>
+        <v>1754.124942906331</v>
       </c>
       <c r="O24" t="n">
-        <v>2258.898469676361</v>
+        <v>1943.620328722823</v>
       </c>
       <c r="P24" t="n">
         <v>2391.652156759136</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.4871643054771</v>
+        <v>545.487164305477</v>
       </c>
       <c r="C25" t="n">
-        <v>460.0132750429078</v>
+        <v>460.0132750429077</v>
       </c>
       <c r="D25" t="n">
-        <v>393.3589292959098</v>
+        <v>393.3589292959096</v>
       </c>
       <c r="E25" t="n">
-        <v>328.9081293788544</v>
+        <v>328.9081293788541</v>
       </c>
       <c r="F25" t="n">
-        <v>265.4804755462817</v>
+        <v>265.4804755462814</v>
       </c>
       <c r="G25" t="n">
-        <v>180.4437192387907</v>
+        <v>180.4437192387904</v>
       </c>
       <c r="H25" t="n">
-        <v>110.6097656319715</v>
+        <v>110.6097656319712</v>
       </c>
       <c r="I25" t="n">
         <v>72.80207526394868</v>
@@ -6148,16 +6148,16 @@
         <v>144.5540345057276</v>
       </c>
       <c r="K25" t="n">
-        <v>339.6779568334194</v>
+        <v>339.6779568334193</v>
       </c>
       <c r="L25" t="n">
-        <v>622.0196061088852</v>
+        <v>622.019606108885</v>
       </c>
       <c r="M25" t="n">
-        <v>925.6517045716125</v>
+        <v>925.6517045716124</v>
       </c>
       <c r="N25" t="n">
-        <v>1229.443781120582</v>
+        <v>1229.443781120581</v>
       </c>
       <c r="O25" t="n">
         <v>1500.273205174844</v>
@@ -6166,7 +6166,7 @@
         <v>1720.300052261754</v>
       </c>
       <c r="Q25" t="n">
-        <v>1814.366505040297</v>
+        <v>1814.366505040296</v>
       </c>
       <c r="R25" t="n">
         <v>1772.197694036156</v>
@@ -6187,10 +6187,10 @@
         <v>925.5308781812514</v>
       </c>
       <c r="X25" t="n">
-        <v>781.0036209485718</v>
+        <v>781.0036209485717</v>
       </c>
       <c r="Y25" t="n">
-        <v>643.6733354703791</v>
+        <v>643.673335470379</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1855.60629756665</v>
+        <v>1855.606297566648</v>
       </c>
       <c r="C26" t="n">
-        <v>1570.106074291577</v>
+        <v>1570.106074291574</v>
       </c>
       <c r="D26" t="n">
-        <v>1295.302669350164</v>
+        <v>1295.302669350162</v>
       </c>
       <c r="E26" t="n">
-        <v>992.976710417257</v>
+        <v>992.9767104172548</v>
       </c>
       <c r="F26" t="n">
-        <v>665.4530992929866</v>
+        <v>665.4530992929849</v>
       </c>
       <c r="G26" t="n">
-        <v>332.0679217270153</v>
+        <v>332.0679217270149</v>
       </c>
       <c r="H26" t="n">
-        <v>99.76818040340697</v>
+        <v>99.76818040340694</v>
       </c>
       <c r="I26" t="n">
-        <v>72.80207526394869</v>
+        <v>72.80207526394867</v>
       </c>
       <c r="J26" t="n">
         <v>281.4321488002441</v>
@@ -6233,43 +6233,43 @@
         <v>1304.840750271855</v>
       </c>
       <c r="M26" t="n">
-        <v>1977.91527911121</v>
+        <v>1635.335400934368</v>
       </c>
       <c r="N26" t="n">
-        <v>2319.463989665793</v>
+        <v>2304.668981782285</v>
       </c>
       <c r="O26" t="n">
-        <v>2906.309072164063</v>
+        <v>2891.514064280556</v>
       </c>
       <c r="P26" t="n">
-        <v>3369.493390027971</v>
+        <v>3354.698382144464</v>
       </c>
       <c r="Q26" t="n">
-        <v>3640.103763197435</v>
+        <v>3625.308755313927</v>
       </c>
       <c r="R26" t="n">
-        <v>3640.103763197435</v>
+        <v>3640.103763197433</v>
       </c>
       <c r="S26" t="n">
-        <v>3572.827095613558</v>
+        <v>3572.827095613556</v>
       </c>
       <c r="T26" t="n">
-        <v>3442.54148690159</v>
+        <v>3442.541486901589</v>
       </c>
       <c r="U26" t="n">
-        <v>3272.331302154661</v>
+        <v>3272.331302154658</v>
       </c>
       <c r="V26" t="n">
-        <v>3024.730708476427</v>
+        <v>3024.730708476425</v>
       </c>
       <c r="W26" t="n">
-        <v>2755.424346871651</v>
+        <v>2755.424346871649</v>
       </c>
       <c r="X26" t="n">
-        <v>2465.420882275909</v>
+        <v>2465.420882275906</v>
       </c>
       <c r="Y26" t="n">
-        <v>2158.743843965435</v>
+        <v>2158.743843965432</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>497.8016008599101</v>
       </c>
       <c r="F27" t="n">
-        <v>351.2670428867951</v>
+        <v>351.267042886795</v>
       </c>
       <c r="G27" t="n">
         <v>213.9542227161805</v>
@@ -6300,25 +6300,25 @@
         <v>114.2800325333537</v>
       </c>
       <c r="I27" t="n">
-        <v>72.80207526394869</v>
+        <v>72.80207526394867</v>
       </c>
       <c r="J27" t="n">
-        <v>203.3673381200753</v>
+        <v>203.3673381200752</v>
       </c>
       <c r="K27" t="n">
-        <v>291.3244269426489</v>
+        <v>295.701785708544</v>
       </c>
       <c r="L27" t="n">
-        <v>823.0480704491242</v>
+        <v>460.2934873645947</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.475691164974</v>
+        <v>1132.769121192944</v>
       </c>
       <c r="N27" t="n">
-        <v>1740.456767394517</v>
+        <v>1364.201246822369</v>
       </c>
       <c r="O27" t="n">
-        <v>2258.898469676361</v>
+        <v>1943.620328722823</v>
       </c>
       <c r="P27" t="n">
         <v>2391.652156759136</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.4871643054767</v>
+        <v>545.4871643054773</v>
       </c>
       <c r="C28" t="n">
-        <v>460.0132750429074</v>
+        <v>460.013275042908</v>
       </c>
       <c r="D28" t="n">
-        <v>393.3589292959094</v>
+        <v>393.35892929591</v>
       </c>
       <c r="E28" t="n">
-        <v>328.9081293788539</v>
+        <v>328.9081293788545</v>
       </c>
       <c r="F28" t="n">
-        <v>265.4804755462812</v>
+        <v>265.4804755462818</v>
       </c>
       <c r="G28" t="n">
-        <v>180.4437192387902</v>
+        <v>180.4437192387907</v>
       </c>
       <c r="H28" t="n">
         <v>110.6097656319716</v>
       </c>
       <c r="I28" t="n">
-        <v>72.80207526394869</v>
+        <v>72.80207526394867</v>
       </c>
       <c r="J28" t="n">
-        <v>144.5540345057277</v>
+        <v>144.5540345057276</v>
       </c>
       <c r="K28" t="n">
-        <v>339.6779568334194</v>
+        <v>339.6779568334191</v>
       </c>
       <c r="L28" t="n">
-        <v>622.0196061088851</v>
+        <v>622.0196061088848</v>
       </c>
       <c r="M28" t="n">
-        <v>925.6517045716123</v>
+        <v>925.6517045716118</v>
       </c>
       <c r="N28" t="n">
         <v>1229.443781120581</v>
       </c>
       <c r="O28" t="n">
-        <v>1500.273205174844</v>
+        <v>1500.273205174843</v>
       </c>
       <c r="P28" t="n">
         <v>1720.300052261754</v>
       </c>
       <c r="Q28" t="n">
-        <v>1814.366505040297</v>
+        <v>1814.366505040296</v>
       </c>
       <c r="R28" t="n">
         <v>1772.197694036156</v>
@@ -6412,22 +6412,22 @@
         <v>1650.098276371512</v>
       </c>
       <c r="T28" t="n">
-        <v>1508.3919521214</v>
+        <v>1508.391952121399</v>
       </c>
       <c r="U28" t="n">
-        <v>1302.707949093423</v>
+        <v>1302.707949093424</v>
       </c>
       <c r="V28" t="n">
         <v>1131.485754552874</v>
       </c>
       <c r="W28" t="n">
-        <v>925.530878181251</v>
+        <v>925.5308781812514</v>
       </c>
       <c r="X28" t="n">
-        <v>781.0036209485713</v>
+        <v>781.0036209485718</v>
       </c>
       <c r="Y28" t="n">
-        <v>643.6733354703787</v>
+        <v>643.6733354703794</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1884.824324395548</v>
+        <v>1884.824324395546</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.324985716518</v>
+        <v>1595.324985716517</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.52246537115</v>
+        <v>1316.522465371149</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.197391034289</v>
+        <v>1010.197391034287</v>
       </c>
       <c r="F29" t="n">
-        <v>678.674664506063</v>
+        <v>678.6746645060623</v>
       </c>
       <c r="G29" t="n">
-        <v>341.2903715361364</v>
+        <v>341.2903715361358</v>
       </c>
       <c r="H29" t="n">
-        <v>104.9915148085731</v>
+        <v>104.991514808573</v>
       </c>
       <c r="I29" t="n">
-        <v>74.02629426515949</v>
+        <v>74.02629426515946</v>
       </c>
       <c r="J29" t="n">
         <v>282.656367801455</v>
@@ -6470,43 +6470,43 @@
         <v>1306.064969273066</v>
       </c>
       <c r="M29" t="n">
-        <v>1979.139498112421</v>
+        <v>1696.546350994908</v>
       </c>
       <c r="N29" t="n">
-        <v>2576.071772596132</v>
+        <v>2365.879931842825</v>
       </c>
       <c r="O29" t="n">
-        <v>3162.916855094403</v>
+        <v>2952.725014341096</v>
       </c>
       <c r="P29" t="n">
-        <v>3626.101172958311</v>
+        <v>3415.909332205004</v>
       </c>
       <c r="Q29" t="n">
-        <v>3686.519705374468</v>
+        <v>3686.519705374467</v>
       </c>
       <c r="R29" t="n">
-        <v>3701.314713257974</v>
+        <v>3701.314713257973</v>
       </c>
       <c r="S29" t="n">
-        <v>3630.038930270142</v>
+        <v>3630.038930270141</v>
       </c>
       <c r="T29" t="n">
-        <v>3495.75420615422</v>
+        <v>3495.754206154218</v>
       </c>
       <c r="U29" t="n">
-        <v>3321.544906003334</v>
+        <v>3321.544906003332</v>
       </c>
       <c r="V29" t="n">
-        <v>3069.945196921146</v>
+        <v>3069.945196921144</v>
       </c>
       <c r="W29" t="n">
-        <v>2796.639719912414</v>
+        <v>2796.639719912413</v>
       </c>
       <c r="X29" t="n">
-        <v>2502.637139912717</v>
+        <v>2502.637139912715</v>
       </c>
       <c r="Y29" t="n">
-        <v>2191.960986198287</v>
+        <v>2191.960986198286</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>115.5042515345645</v>
       </c>
       <c r="I30" t="n">
-        <v>74.02629426515949</v>
+        <v>74.02629426515946</v>
       </c>
       <c r="J30" t="n">
-        <v>204.5915571212861</v>
+        <v>204.591557121286</v>
       </c>
       <c r="K30" t="n">
-        <v>292.5486459438597</v>
+        <v>491.4015820806271</v>
       </c>
       <c r="L30" t="n">
-        <v>824.2722894503351</v>
+        <v>655.9932837366779</v>
       </c>
       <c r="M30" t="n">
-        <v>1496.747923278685</v>
+        <v>867.4209044525273</v>
       </c>
       <c r="N30" t="n">
-        <v>1728.180048908109</v>
+        <v>1573.40198068207</v>
       </c>
       <c r="O30" t="n">
-        <v>1944.844547724034</v>
+        <v>2152.821062582525</v>
       </c>
       <c r="P30" t="n">
-        <v>2392.876375760347</v>
+        <v>2600.852890618838</v>
       </c>
       <c r="Q30" t="n">
         <v>2639.676018354477</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>574.7051911343751</v>
+        <v>532.8983853623962</v>
       </c>
       <c r="C31" t="n">
-        <v>485.2321864678506</v>
+        <v>443.4253806958718</v>
       </c>
       <c r="D31" t="n">
-        <v>414.5787253168972</v>
+        <v>372.7719195449184</v>
       </c>
       <c r="E31" t="n">
-        <v>346.1288099958865</v>
+        <v>304.3220042239078</v>
       </c>
       <c r="F31" t="n">
-        <v>278.7020407593585</v>
+        <v>236.8952349873798</v>
       </c>
       <c r="G31" t="n">
-        <v>189.6661690479121</v>
+        <v>147.8593632759339</v>
       </c>
       <c r="H31" t="n">
-        <v>115.8331000371377</v>
+        <v>74.02629426515946</v>
       </c>
       <c r="I31" t="n">
-        <v>74.02629426515949</v>
+        <v>74.02629426515946</v>
       </c>
       <c r="J31" t="n">
-        <v>141.858720499522</v>
+        <v>141.8587204995219</v>
       </c>
       <c r="K31" t="n">
-        <v>333.0631098197971</v>
+        <v>333.063109819797</v>
       </c>
       <c r="L31" t="n">
         <v>611.4852260878463</v>
       </c>
       <c r="M31" t="n">
-        <v>911.1977915431568</v>
+        <v>911.1977915431569</v>
       </c>
       <c r="N31" t="n">
         <v>1211.070335084709</v>
@@ -6640,31 +6640,31 @@
         <v>1694.087540211049</v>
       </c>
       <c r="Q31" t="n">
-        <v>1784.234459982174</v>
+        <v>1784.234459982175</v>
       </c>
       <c r="R31" t="n">
-        <v>1738.066533574078</v>
+        <v>1738.066533574079</v>
       </c>
       <c r="S31" t="n">
-        <v>1611.968000505479</v>
+        <v>1611.96800050548</v>
       </c>
       <c r="T31" t="n">
-        <v>1466.262560851411</v>
+        <v>1466.262560851412</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.57944241948</v>
+        <v>1310.114747170119</v>
       </c>
       <c r="V31" t="n">
-        <v>1081.358132474976</v>
+        <v>1134.893437225614</v>
       </c>
       <c r="W31" t="n">
-        <v>871.4041406993974</v>
+        <v>924.9394454500363</v>
       </c>
       <c r="X31" t="n">
-        <v>818.2198785853802</v>
+        <v>776.4130728134012</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.8904777032325</v>
+        <v>635.0836719312534</v>
       </c>
     </row>
     <row r="32">
@@ -6683,64 +6683,64 @@
         <v>1295.302669350162</v>
       </c>
       <c r="E32" t="n">
-        <v>992.9767104172558</v>
+        <v>992.9767104172556</v>
       </c>
       <c r="F32" t="n">
-        <v>665.4530992929863</v>
+        <v>665.4530992929857</v>
       </c>
       <c r="G32" t="n">
-        <v>332.067921727015</v>
+        <v>332.0679217270144</v>
       </c>
       <c r="H32" t="n">
-        <v>99.76818040340697</v>
+        <v>99.76818040340694</v>
       </c>
       <c r="I32" t="n">
-        <v>72.80207526394868</v>
+        <v>72.80207526394867</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0264997798911</v>
+        <v>281.4321488002441</v>
       </c>
       <c r="K32" t="n">
-        <v>547.4537024910834</v>
+        <v>714.8593515114364</v>
       </c>
       <c r="L32" t="n">
-        <v>1137.435101251502</v>
+        <v>1304.840750271855</v>
       </c>
       <c r="M32" t="n">
-        <v>1810.509630090857</v>
+        <v>1977.91527911121</v>
       </c>
       <c r="N32" t="n">
-        <v>2479.843210938774</v>
+        <v>2304.668981782285</v>
       </c>
       <c r="O32" t="n">
-        <v>3066.688293437044</v>
+        <v>2891.514064280556</v>
       </c>
       <c r="P32" t="n">
-        <v>3529.872611300952</v>
+        <v>3354.698382144464</v>
       </c>
       <c r="Q32" t="n">
-        <v>3640.103763197434</v>
+        <v>3625.308755313927</v>
       </c>
       <c r="R32" t="n">
-        <v>3640.103763197434</v>
+        <v>3640.103763197433</v>
       </c>
       <c r="S32" t="n">
-        <v>3572.827095613557</v>
+        <v>3572.827095613556</v>
       </c>
       <c r="T32" t="n">
-        <v>3442.54148690159</v>
+        <v>3442.541486901589</v>
       </c>
       <c r="U32" t="n">
-        <v>3272.33130215466</v>
+        <v>3272.331302154659</v>
       </c>
       <c r="V32" t="n">
-        <v>3024.730708476427</v>
+        <v>3024.730708476426</v>
       </c>
       <c r="W32" t="n">
-        <v>2755.42434687165</v>
+        <v>2755.424346871649</v>
       </c>
       <c r="X32" t="n">
-        <v>2465.420882275908</v>
+        <v>2465.420882275907</v>
       </c>
       <c r="Y32" t="n">
         <v>2158.743843965433</v>
@@ -6765,7 +6765,7 @@
         <v>497.8016008599101</v>
       </c>
       <c r="F33" t="n">
-        <v>351.2670428867951</v>
+        <v>351.267042886795</v>
       </c>
       <c r="G33" t="n">
         <v>213.9542227161805</v>
@@ -6774,28 +6774,28 @@
         <v>114.2800325333537</v>
       </c>
       <c r="I33" t="n">
-        <v>72.80207526394868</v>
+        <v>72.80207526394867</v>
       </c>
       <c r="J33" t="n">
-        <v>203.3673381200753</v>
+        <v>203.3673381200752</v>
       </c>
       <c r="K33" t="n">
-        <v>553.1450115851017</v>
+        <v>291.3244269426489</v>
       </c>
       <c r="L33" t="n">
-        <v>1084.868655091577</v>
+        <v>823.0480704491242</v>
       </c>
       <c r="M33" t="n">
-        <v>1363.422007630326</v>
+        <v>1034.475691164974</v>
       </c>
       <c r="N33" t="n">
-        <v>2069.403083859869</v>
+        <v>1740.456767394517</v>
       </c>
       <c r="O33" t="n">
-        <v>2258.898469676361</v>
+        <v>2319.875849294971</v>
       </c>
       <c r="P33" t="n">
-        <v>2391.652156759136</v>
+        <v>2452.629536377746</v>
       </c>
       <c r="Q33" t="n">
         <v>2638.451799353266</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>545.487164305477</v>
+        <v>545.4871643054769</v>
       </c>
       <c r="C34" t="n">
         <v>460.0132750429077</v>
@@ -6844,25 +6844,25 @@
         <v>328.9081293788541</v>
       </c>
       <c r="F34" t="n">
-        <v>265.4804755462814</v>
+        <v>265.4804755462815</v>
       </c>
       <c r="G34" t="n">
         <v>180.4437192387904</v>
       </c>
       <c r="H34" t="n">
-        <v>110.6097656319712</v>
+        <v>110.6097656319716</v>
       </c>
       <c r="I34" t="n">
-        <v>72.80207526394868</v>
+        <v>72.80207526394867</v>
       </c>
       <c r="J34" t="n">
-        <v>144.5540345057275</v>
+        <v>144.5540345057271</v>
       </c>
       <c r="K34" t="n">
-        <v>339.6779568334193</v>
+        <v>339.6779568334191</v>
       </c>
       <c r="L34" t="n">
-        <v>622.019606108885</v>
+        <v>622.0196061088848</v>
       </c>
       <c r="M34" t="n">
         <v>925.6517045716121</v>
@@ -6895,13 +6895,13 @@
         <v>1131.485754552874</v>
       </c>
       <c r="W34" t="n">
-        <v>925.530878181251</v>
+        <v>925.5308781812512</v>
       </c>
       <c r="X34" t="n">
-        <v>781.0036209485712</v>
+        <v>781.0036209485716</v>
       </c>
       <c r="Y34" t="n">
-        <v>643.673335470379</v>
+        <v>643.6733354703789</v>
       </c>
     </row>
     <row r="35">
@@ -6932,40 +6932,40 @@
         <v>99.76818040340694</v>
       </c>
       <c r="I35" t="n">
-        <v>72.80207526394867</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0264997798911</v>
+        <v>281.4321488002441</v>
       </c>
       <c r="K35" t="n">
-        <v>547.4537024910834</v>
+        <v>714.8593515114364</v>
       </c>
       <c r="L35" t="n">
-        <v>1137.435101251502</v>
+        <v>962.2608720950143</v>
       </c>
       <c r="M35" t="n">
-        <v>1810.509630090857</v>
+        <v>1635.335400934369</v>
       </c>
       <c r="N35" t="n">
-        <v>2479.843210938774</v>
+        <v>2304.668981782286</v>
       </c>
       <c r="O35" t="n">
-        <v>3066.688293437044</v>
+        <v>2891.514064280557</v>
       </c>
       <c r="P35" t="n">
-        <v>3369.49339002797</v>
+        <v>3354.698382144465</v>
       </c>
       <c r="Q35" t="n">
-        <v>3640.103763197433</v>
+        <v>3625.308755313928</v>
       </c>
       <c r="R35" t="n">
-        <v>3640.103763197433</v>
+        <v>3640.103763197434</v>
       </c>
       <c r="S35" t="n">
-        <v>3572.827095613556</v>
+        <v>3572.827095613557</v>
       </c>
       <c r="T35" t="n">
-        <v>3442.541486901589</v>
+        <v>3442.54148690159</v>
       </c>
       <c r="U35" t="n">
         <v>3272.33130215466</v>
@@ -7002,7 +7002,7 @@
         <v>497.8016008599101</v>
       </c>
       <c r="F36" t="n">
-        <v>351.267042886795</v>
+        <v>351.2670428867951</v>
       </c>
       <c r="G36" t="n">
         <v>213.9542227161805</v>
@@ -7011,28 +7011,28 @@
         <v>114.2800325333537</v>
       </c>
       <c r="I36" t="n">
-        <v>72.80207526394867</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="J36" t="n">
-        <v>203.3673381200752</v>
+        <v>203.3673381200753</v>
       </c>
       <c r="K36" t="n">
-        <v>291.3244269426489</v>
+        <v>553.1450115851017</v>
       </c>
       <c r="L36" t="n">
-        <v>823.0480704491242</v>
+        <v>1084.868655091577</v>
       </c>
       <c r="M36" t="n">
-        <v>1181.474826404854</v>
+        <v>1757.344288919926</v>
       </c>
       <c r="N36" t="n">
-        <v>1887.455902634397</v>
+        <v>1988.776414549351</v>
       </c>
       <c r="O36" t="n">
-        <v>2466.874984534852</v>
+        <v>2258.898469676361</v>
       </c>
       <c r="P36" t="n">
-        <v>2599.628671617627</v>
+        <v>2391.652156759136</v>
       </c>
       <c r="Q36" t="n">
         <v>2638.451799353266</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>545.4871643054772</v>
+        <v>545.487164305477</v>
       </c>
       <c r="C37" t="n">
-        <v>460.0132750429079</v>
+        <v>460.0132750429078</v>
       </c>
       <c r="D37" t="n">
-        <v>393.3589292959099</v>
+        <v>393.3589292959097</v>
       </c>
       <c r="E37" t="n">
-        <v>328.9081293788544</v>
+        <v>328.9081293788543</v>
       </c>
       <c r="F37" t="n">
-        <v>265.4804755462818</v>
+        <v>265.4804755462816</v>
       </c>
       <c r="G37" t="n">
-        <v>180.4437192387907</v>
+        <v>180.4437192387905</v>
       </c>
       <c r="H37" t="n">
         <v>110.6097656319715</v>
       </c>
       <c r="I37" t="n">
-        <v>72.80207526394867</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="J37" t="n">
-        <v>144.5540345057273</v>
+        <v>144.5540345057276</v>
       </c>
       <c r="K37" t="n">
-        <v>339.6779568334191</v>
+        <v>339.6779568334192</v>
       </c>
       <c r="L37" t="n">
-        <v>622.0196061088848</v>
+        <v>622.0196061088849</v>
       </c>
       <c r="M37" t="n">
-        <v>925.6517045716121</v>
+        <v>925.6517045716122</v>
       </c>
       <c r="N37" t="n">
         <v>1229.443781120581</v>
@@ -7132,13 +7132,13 @@
         <v>1131.485754552874</v>
       </c>
       <c r="W37" t="n">
-        <v>925.5308781812514</v>
+        <v>925.530878181251</v>
       </c>
       <c r="X37" t="n">
-        <v>781.0036209485717</v>
+        <v>781.0036209485712</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.6733354703792</v>
+        <v>643.673335470379</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1295.302669350162</v>
       </c>
       <c r="E38" t="n">
-        <v>992.9767104172561</v>
+        <v>992.9767104172558</v>
       </c>
       <c r="F38" t="n">
-        <v>665.4530992929857</v>
+        <v>665.4530992929861</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0679217270144</v>
+        <v>332.0679217270149</v>
       </c>
       <c r="H38" t="n">
-        <v>99.76818040340694</v>
+        <v>99.76818040340692</v>
       </c>
       <c r="I38" t="n">
         <v>72.80207526394868</v>
@@ -7175,22 +7175,22 @@
         <v>281.4321488002441</v>
       </c>
       <c r="K38" t="n">
-        <v>714.8593515114364</v>
+        <v>714.8593515114363</v>
       </c>
       <c r="L38" t="n">
         <v>1304.840750271855</v>
       </c>
       <c r="M38" t="n">
-        <v>1635.335400934369</v>
+        <v>1977.91527911121</v>
       </c>
       <c r="N38" t="n">
-        <v>2304.668981782286</v>
+        <v>2514.860822535592</v>
       </c>
       <c r="O38" t="n">
-        <v>2891.514064280556</v>
+        <v>3101.705905033862</v>
       </c>
       <c r="P38" t="n">
-        <v>3354.698382144464</v>
+        <v>3564.89022289777</v>
       </c>
       <c r="Q38" t="n">
         <v>3625.308755313928</v>
@@ -7254,22 +7254,22 @@
         <v>203.3673381200753</v>
       </c>
       <c r="K39" t="n">
-        <v>318.4935399420815</v>
+        <v>553.1450115851017</v>
       </c>
       <c r="L39" t="n">
-        <v>850.2171834485569</v>
+        <v>1084.868655091577</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.692817276906</v>
+        <v>1757.344288919926</v>
       </c>
       <c r="N39" t="n">
-        <v>1754.124942906331</v>
+        <v>1988.776414549351</v>
       </c>
       <c r="O39" t="n">
-        <v>1943.620328722823</v>
+        <v>2258.898469676361</v>
       </c>
       <c r="P39" t="n">
-        <v>2391.652156759136</v>
+        <v>2391.652156759137</v>
       </c>
       <c r="Q39" t="n">
         <v>2638.451799353266</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.4871643054771</v>
+        <v>545.4871643054769</v>
       </c>
       <c r="C40" t="n">
-        <v>460.0132750429078</v>
+        <v>460.0132750429077</v>
       </c>
       <c r="D40" t="n">
-        <v>393.3589292959098</v>
+        <v>393.3589292959097</v>
       </c>
       <c r="E40" t="n">
-        <v>328.9081293788544</v>
+        <v>328.9081293788543</v>
       </c>
       <c r="F40" t="n">
-        <v>265.4804755462817</v>
+        <v>265.4804755462816</v>
       </c>
       <c r="G40" t="n">
         <v>180.4437192387907</v>
@@ -7339,7 +7339,7 @@
         <v>622.0196061088852</v>
       </c>
       <c r="M40" t="n">
-        <v>925.6517045716124</v>
+        <v>925.6517045716121</v>
       </c>
       <c r="N40" t="n">
         <v>1229.443781120581</v>
@@ -7369,13 +7369,13 @@
         <v>1131.485754552874</v>
       </c>
       <c r="W40" t="n">
-        <v>925.5308781812512</v>
+        <v>925.530878181251</v>
       </c>
       <c r="X40" t="n">
-        <v>781.0036209485716</v>
+        <v>781.0036209485713</v>
       </c>
       <c r="Y40" t="n">
-        <v>643.6733354703791</v>
+        <v>643.6733354703789</v>
       </c>
     </row>
     <row r="41">
@@ -7394,40 +7394,40 @@
         <v>1295.302669350163</v>
       </c>
       <c r="E41" t="n">
-        <v>992.9767104172565</v>
+        <v>992.9767104172566</v>
       </c>
       <c r="F41" t="n">
         <v>665.4530992929867</v>
       </c>
       <c r="G41" t="n">
-        <v>332.0679217270155</v>
+        <v>332.0679217270149</v>
       </c>
       <c r="H41" t="n">
-        <v>99.76818040340692</v>
+        <v>99.76818040340697</v>
       </c>
       <c r="I41" t="n">
         <v>72.80207526394868</v>
       </c>
       <c r="J41" t="n">
-        <v>281.4321488002441</v>
+        <v>114.0264997798911</v>
       </c>
       <c r="K41" t="n">
-        <v>393.9553930659834</v>
+        <v>547.4537024910833</v>
       </c>
       <c r="L41" t="n">
-        <v>983.9367918264022</v>
+        <v>1137.435101251502</v>
       </c>
       <c r="M41" t="n">
-        <v>1635.335400934369</v>
+        <v>1810.509630090856</v>
       </c>
       <c r="N41" t="n">
-        <v>2304.668981782286</v>
+        <v>2479.843210938774</v>
       </c>
       <c r="O41" t="n">
-        <v>2891.514064280556</v>
+        <v>2891.514064280557</v>
       </c>
       <c r="P41" t="n">
-        <v>3354.698382144464</v>
+        <v>3354.698382144465</v>
       </c>
       <c r="Q41" t="n">
         <v>3625.308755313928</v>
@@ -7439,7 +7439,7 @@
         <v>3572.827095613557</v>
       </c>
       <c r="T41" t="n">
-        <v>3442.541486901589</v>
+        <v>3442.54148690159</v>
       </c>
       <c r="U41" t="n">
         <v>3272.33130215466</v>
@@ -7491,22 +7491,22 @@
         <v>78.53721313307051</v>
       </c>
       <c r="K42" t="n">
-        <v>304.9926024544633</v>
+        <v>166.4943019556441</v>
       </c>
       <c r="L42" t="n">
-        <v>836.7162459609386</v>
+        <v>698.2179454621195</v>
       </c>
       <c r="M42" t="n">
-        <v>1048.143866676788</v>
+        <v>1370.693579290469</v>
       </c>
       <c r="N42" t="n">
-        <v>1754.124942906331</v>
+        <v>2076.674655520012</v>
       </c>
       <c r="O42" t="n">
-        <v>1943.620328722823</v>
+        <v>2466.874984534852</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.652156759136</v>
+        <v>2599.628671617627</v>
       </c>
       <c r="Q42" t="n">
         <v>2638.451799353266</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.4871643054767</v>
+        <v>545.4871643054769</v>
       </c>
       <c r="C43" t="n">
-        <v>460.0132750429075</v>
+        <v>460.0132750429076</v>
       </c>
       <c r="D43" t="n">
-        <v>393.3589292959094</v>
+        <v>393.3589292959095</v>
       </c>
       <c r="E43" t="n">
         <v>328.908129378854</v>
       </c>
       <c r="F43" t="n">
-        <v>265.4804755462814</v>
+        <v>265.4804755462813</v>
       </c>
       <c r="G43" t="n">
         <v>180.4437192387903</v>
       </c>
       <c r="H43" t="n">
-        <v>110.6097656319712</v>
+        <v>110.6097656319716</v>
       </c>
       <c r="I43" t="n">
         <v>72.80207526394868</v>
       </c>
       <c r="J43" t="n">
-        <v>144.5540345057277</v>
+        <v>144.5540345057276</v>
       </c>
       <c r="K43" t="n">
-        <v>339.6779568334194</v>
+        <v>339.677956833419</v>
       </c>
       <c r="L43" t="n">
-        <v>622.0196061088852</v>
+        <v>622.0196061088848</v>
       </c>
       <c r="M43" t="n">
-        <v>925.6517045716123</v>
+        <v>925.651704571612</v>
       </c>
       <c r="N43" t="n">
         <v>1229.443781120581</v>
@@ -7606,13 +7606,13 @@
         <v>1131.485754552874</v>
       </c>
       <c r="W43" t="n">
-        <v>925.530878181251</v>
+        <v>925.5308781812507</v>
       </c>
       <c r="X43" t="n">
-        <v>781.0036209485713</v>
+        <v>781.003620948571</v>
       </c>
       <c r="Y43" t="n">
-        <v>643.6733354703787</v>
+        <v>643.6733354703789</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1855.606297566649</v>
+        <v>1855.60629756665</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.106074291575</v>
+        <v>1570.106074291576</v>
       </c>
       <c r="D44" t="n">
         <v>1295.302669350163</v>
@@ -7640,10 +7640,10 @@
         <v>332.0679217270149</v>
       </c>
       <c r="H44" t="n">
-        <v>99.76818040340692</v>
+        <v>99.76818040340697</v>
       </c>
       <c r="I44" t="n">
-        <v>72.80207526394865</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="J44" t="n">
         <v>281.4321488002441</v>
@@ -7655,43 +7655,43 @@
         <v>1304.840750271855</v>
       </c>
       <c r="M44" t="n">
-        <v>1977.91527911121</v>
+        <v>1635.33540093437</v>
       </c>
       <c r="N44" t="n">
-        <v>2529.655830419098</v>
+        <v>2304.668981782287</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.500912917368</v>
+        <v>2891.514064280557</v>
       </c>
       <c r="P44" t="n">
-        <v>3579.685230781275</v>
+        <v>3354.698382144465</v>
       </c>
       <c r="Q44" t="n">
-        <v>3640.103763197433</v>
+        <v>3625.308755313928</v>
       </c>
       <c r="R44" t="n">
-        <v>3640.103763197433</v>
+        <v>3640.103763197434</v>
       </c>
       <c r="S44" t="n">
-        <v>3572.827095613556</v>
+        <v>3572.827095613557</v>
       </c>
       <c r="T44" t="n">
-        <v>3442.541486901589</v>
+        <v>3442.54148690159</v>
       </c>
       <c r="U44" t="n">
-        <v>3272.331302154659</v>
+        <v>3272.33130215466</v>
       </c>
       <c r="V44" t="n">
-        <v>3024.730708476426</v>
+        <v>3024.730708476427</v>
       </c>
       <c r="W44" t="n">
         <v>2755.42434687165</v>
       </c>
       <c r="X44" t="n">
-        <v>2465.420882275907</v>
+        <v>2465.420882275908</v>
       </c>
       <c r="Y44" t="n">
-        <v>2158.743843965433</v>
+        <v>2158.743843965434</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>114.2800325333537</v>
       </c>
       <c r="I45" t="n">
-        <v>72.80207526394865</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="J45" t="n">
-        <v>78.53721313307048</v>
+        <v>203.3673381200753</v>
       </c>
       <c r="K45" t="n">
-        <v>389.6178569706201</v>
+        <v>291.3244269426489</v>
       </c>
       <c r="L45" t="n">
-        <v>921.3415004770955</v>
+        <v>654.769064735468</v>
       </c>
       <c r="M45" t="n">
-        <v>1132.769121192945</v>
+        <v>866.1966854513174</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.20124682237</v>
+        <v>1572.17776168086</v>
       </c>
       <c r="O45" t="n">
-        <v>1943.620328722824</v>
+        <v>2151.596843581314</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.652156759137</v>
+        <v>2599.628671617627</v>
       </c>
       <c r="Q45" t="n">
         <v>2638.451799353266</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.4871643054773</v>
+        <v>545.4871643054771</v>
       </c>
       <c r="C46" t="n">
-        <v>460.013275042908</v>
+        <v>460.0132750429079</v>
       </c>
       <c r="D46" t="n">
-        <v>393.35892929591</v>
+        <v>393.3589292959098</v>
       </c>
       <c r="E46" t="n">
-        <v>328.9081293788546</v>
+        <v>328.9081293788544</v>
       </c>
       <c r="F46" t="n">
-        <v>265.4804755462819</v>
+        <v>265.4804755462817</v>
       </c>
       <c r="G46" t="n">
-        <v>180.4437192387909</v>
+        <v>180.4437192387907</v>
       </c>
       <c r="H46" t="n">
-        <v>110.6097656319715</v>
+        <v>110.6097656319716</v>
       </c>
       <c r="I46" t="n">
-        <v>72.80207526394865</v>
+        <v>72.80207526394868</v>
       </c>
       <c r="J46" t="n">
         <v>144.5540345057275</v>
@@ -7834,22 +7834,22 @@
         <v>1650.098276371512</v>
       </c>
       <c r="T46" t="n">
-        <v>1508.3919521214</v>
+        <v>1508.391952121399</v>
       </c>
       <c r="U46" t="n">
-        <v>1302.707949093424</v>
+        <v>1302.707949093423</v>
       </c>
       <c r="V46" t="n">
         <v>1131.485754552874</v>
       </c>
       <c r="W46" t="n">
-        <v>925.5308781812514</v>
+        <v>925.5308781812512</v>
       </c>
       <c r="X46" t="n">
-        <v>781.0036209485718</v>
+        <v>781.0036209485716</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.6733354703794</v>
+        <v>643.6733354703791</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4367714371534</v>
+        <v>156.8184790122994</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,10 +8620,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8693,19 +8693,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>149.1142783901366</v>
       </c>
       <c r="M11" t="n">
         <v>424.1427526739687</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>415.7548789380064</v>
       </c>
       <c r="O11" t="n">
-        <v>206.2094158689553</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>336.4907748305587</v>
+        <v>440.939227386697</v>
       </c>
       <c r="N12" t="n">
-        <v>420.7326567669236</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>106.2069164749362</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>147.2017467565305</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>103.4732525061246</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>193.8948048584892</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.50932395440087</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>240.7175487358163</v>
       </c>
       <c r="M17" t="n">
-        <v>118.417704913706</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>50.77196746540076</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>85.50932395440111</v>
+        <v>183.0163388073884</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9416,10 +9416,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0178702522619</v>
+        <v>50.31577725285243</v>
       </c>
       <c r="R20" t="n">
         <v>50.77196746540076</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>67.80376951808046</v>
       </c>
       <c r="N21" t="n">
-        <v>279.3748599253132</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>106.2510958328575</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>34.75990027603777</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>50.77196746540073</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>279.3748599253126</v>
+        <v>228.6833752216967</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>103.4732525061237</v>
       </c>
       <c r="N26" t="n">
-        <v>106.2510958328584</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>50.77196746540076</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4.421574511005161</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>332.2690065306588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,10 +10118,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>164.0659101418098</v>
       </c>
       <c r="N29" t="n">
-        <v>364.214291720867</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>200.8615516533005</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>27.44354848427523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>91.30664342527518</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.31577725285288</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>50.77196746540076</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>67.80376951808046</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.4839749897782</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>71.62093356374243</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>159.79949476443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>50.77196746540076</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>148.4839749897785</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>81.44108011163405</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>103.4732525061246</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>303.621634085181</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>27.44354848427535</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>81.44108011163456</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>427.6186650772892</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>203.8565154481124</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>139.8972732311304</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.7322658569178</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11303,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>103.4732525061256</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5660864927625</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>50.77196746540079</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>225.3773282979555</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>200.8615516533014</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>328.9490016009639</v>
+        <v>86.94845371669861</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>318.3591514506393</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>345.6064799022181</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>370.5521555716678</v>
       </c>
       <c r="G11" t="n">
-        <v>376.3551063489522</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>214.8118634581016</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>297.5667856409847</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>333.4072105084254</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.91404848601</v>
+        <v>349.9140484860099</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>143.5080900118936</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.2915828481687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>109.0971578528876</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4901693030568</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>115.4393946293915</v>
       </c>
       <c r="I13" t="n">
-        <v>83.73339402298329</v>
+        <v>83.73339402298321</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.05090345273996</v>
       </c>
       <c r="S13" t="n">
-        <v>167.182204046638</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>61.53979008316489</v>
+        <v>186.5930415662521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.39482948639989</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>215.8137531537843</v>
       </c>
       <c r="W13" t="n">
-        <v>250.1991081665474</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>189.3857652189935</v>
+        <v>189.3857652189934</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>341.6473556523024</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>69.04110039678858</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>46.31805072844543</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>210.852739208186</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>308.9579542974536</v>
       </c>
       <c r="X14" t="n">
-        <v>293.5224889785719</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5489657619779</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>126.9638066786684</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>108.332458598253</v>
       </c>
       <c r="E16" t="n">
         <v>106.1509482266098</v>
       </c>
       <c r="F16" t="n">
-        <v>105.1380336029719</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>126.531045053141</v>
       </c>
       <c r="H16" t="n">
-        <v>7.703488850218363</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>79.77426977306753</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.09177920282428</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>182.6339173163364</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.8546289038686</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4266409690778</v>
+        <v>143.927349101195</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>178.3016389321354</v>
       </c>
     </row>
     <row r="17">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.38873771425833</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>52.99995170313161</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>94.38868941739162</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1084774.119395148</v>
+        <v>1084774.119395149</v>
       </c>
     </row>
     <row r="6">
@@ -26314,10 +26314,10 @@
         <v>163855.2677434077</v>
       </c>
       <c r="C2" t="n">
-        <v>163855.2677434076</v>
+        <v>163855.2677434077</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
         <v>132065.3628802944</v>
@@ -26332,28 +26332,28 @@
         <v>164208.3539728567</v>
       </c>
       <c r="I2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="J2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="K2" t="n">
-        <v>163755.2882636531</v>
+        <v>163755.2882636532</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728569</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>744255.5381831981</v>
       </c>
       <c r="F3" t="n">
-        <v>76381.41434697705</v>
+        <v>76381.41434697698</v>
       </c>
       <c r="G3" t="n">
-        <v>33875.72504697992</v>
+        <v>33875.72504697994</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>29059.1121360349</v>
+        <v>29059.11213603496</v>
       </c>
       <c r="K3" t="n">
-        <v>3938.434948795248</v>
+        <v>3938.434948795277</v>
       </c>
       <c r="L3" t="n">
-        <v>37043.02444691252</v>
+        <v>37043.0244469125</v>
       </c>
       <c r="M3" t="n">
-        <v>159291.1327844502</v>
+        <v>159291.1327844503</v>
       </c>
       <c r="N3" t="n">
-        <v>62584.59452766855</v>
+        <v>62584.59452766849</v>
       </c>
       <c r="O3" t="n">
         <v>29059.11213603491</v>
@@ -26421,10 +26421,10 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897232</v>
+        <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
-        <v>98488.29826498308</v>
+        <v>98488.29826498315</v>
       </c>
       <c r="F4" t="n">
         <v>126771.0391345243</v>
@@ -26433,7 +26433,7 @@
         <v>169562.2504912103</v>
       </c>
       <c r="H4" t="n">
-        <v>169562.2504912104</v>
+        <v>169562.2504912103</v>
       </c>
       <c r="I4" t="n">
         <v>169562.2504912103</v>
@@ -26442,7 +26442,7 @@
         <v>169562.2504912103</v>
       </c>
       <c r="K4" t="n">
-        <v>167015.5618383024</v>
+        <v>167015.5618383025</v>
       </c>
       <c r="L4" t="n">
         <v>169562.2504912103</v>
@@ -26451,7 +26451,7 @@
         <v>169562.2504912103</v>
       </c>
       <c r="N4" t="n">
-        <v>169562.2504912103</v>
+        <v>169562.2504912104</v>
       </c>
       <c r="O4" t="n">
         <v>169562.2504912104</v>
@@ -26476,7 +26476,7 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>57075.35543212925</v>
+        <v>57075.35543212926</v>
       </c>
       <c r="F5" t="n">
         <v>72944.0214266866</v>
@@ -26485,31 +26485,31 @@
         <v>76503.89433790479</v>
       </c>
       <c r="H5" t="n">
-        <v>76503.8943379048</v>
+        <v>76503.89433790479</v>
       </c>
       <c r="I5" t="n">
         <v>76503.8943379048</v>
       </c>
       <c r="J5" t="n">
-        <v>76503.89433790481</v>
+        <v>76503.89433790479</v>
       </c>
       <c r="K5" t="n">
         <v>77101.46116225884</v>
       </c>
       <c r="L5" t="n">
+        <v>76503.89433790479</v>
+      </c>
+      <c r="M5" t="n">
         <v>76503.8943379048</v>
-      </c>
-      <c r="M5" t="n">
-        <v>76503.89433790479</v>
       </c>
       <c r="N5" t="n">
         <v>76503.89433790479</v>
       </c>
       <c r="O5" t="n">
-        <v>76503.89433790479</v>
+        <v>76503.8943379048</v>
       </c>
       <c r="P5" t="n">
-        <v>76503.89433790479</v>
+        <v>76503.8943379048</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-279169.3605929789</v>
+        <v>-279173.774170847</v>
       </c>
       <c r="C6" t="n">
-        <v>-279169.3605929789</v>
+        <v>-279173.774170847</v>
       </c>
       <c r="D6" t="n">
         <v>-283226.2226121131</v>
       </c>
       <c r="E6" t="n">
-        <v>-767753.8290000161</v>
+        <v>-768155.616388673</v>
       </c>
       <c r="F6" t="n">
-        <v>-126845.7711760549</v>
+        <v>-127032.7418040639</v>
       </c>
       <c r="G6" t="n">
-        <v>-115733.5159032383</v>
+        <v>-115733.5159032384</v>
       </c>
       <c r="H6" t="n">
+        <v>-81857.79085625848</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-81857.79085625838</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-110916.9029922934</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-84305.83300706843</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-118900.8153031709</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-241148.9236407087</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-144442.3853839269</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-110916.9029922934</v>
+      </c>
+      <c r="P6" t="n">
         <v>-81857.79085625849</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-81857.79085625826</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-110916.9029922933</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-84300.16968570344</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-118900.815303171</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-241148.9236407086</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-144442.385383927</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-110916.9029922932</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-81857.79085625836</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="F2" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="G2" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="H2" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="I2" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J2" t="n">
+        <v>82.62767072868427</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.66854647876859</v>
+      </c>
+      <c r="L2" t="n">
         <v>82.62767072868428</v>
-      </c>
-      <c r="K2" t="n">
-        <v>78.66854647876852</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82.62767072868427</v>
       </c>
       <c r="M2" t="n">
         <v>82.62767072868428</v>
       </c>
       <c r="N2" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="O2" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="P2" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>652.6555727896351</v>
       </c>
       <c r="I3" t="n">
-        <v>652.6555727896352</v>
+        <v>652.6555727896351</v>
       </c>
       <c r="J3" t="n">
         <v>652.6555727896351</v>
@@ -26771,10 +26771,10 @@
         <v>652.6555727896351</v>
       </c>
       <c r="N3" t="n">
-        <v>652.6555727896351</v>
+        <v>652.655572789635</v>
       </c>
       <c r="O3" t="n">
-        <v>652.6555727896351</v>
+        <v>652.655572789635</v>
       </c>
       <c r="P3" t="n">
         <v>652.655572789635</v>
@@ -26805,31 +26805,31 @@
         <v>910.0259407993584</v>
       </c>
       <c r="H4" t="n">
-        <v>910.0259407993585</v>
+        <v>910.0259407993584</v>
       </c>
       <c r="I4" t="n">
         <v>910.0259407993585</v>
       </c>
       <c r="J4" t="n">
-        <v>910.0259407993586</v>
+        <v>910.0259407993583</v>
       </c>
       <c r="K4" t="n">
-        <v>925.3286783144936</v>
+        <v>925.3286783144933</v>
       </c>
       <c r="L4" t="n">
+        <v>910.0259407993583</v>
+      </c>
+      <c r="M4" t="n">
         <v>910.0259407993585</v>
-      </c>
-      <c r="M4" t="n">
-        <v>910.0259407993583</v>
       </c>
       <c r="N4" t="n">
         <v>910.0259407993584</v>
       </c>
       <c r="O4" t="n">
-        <v>910.0259407993584</v>
+        <v>910.0259407993585</v>
       </c>
       <c r="P4" t="n">
-        <v>910.0259407993582</v>
+        <v>910.0259407993585</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="F2" t="n">
-        <v>3.95912424991576</v>
+        <v>3.959124249915675</v>
       </c>
       <c r="G2" t="n">
-        <v>42.3446563087249</v>
+        <v>42.34465630872493</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>36.32389017004362</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.30378055864065</v>
+        <v>46.30378055864062</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.30273751513494</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.1997431198945</v>
+        <v>639.1997431198949</v>
       </c>
       <c r="N4" t="n">
-        <v>255.5234601643288</v>
+        <v>255.5234601643285</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95912424991576</v>
+        <v>3.959124249915675</v>
       </c>
       <c r="L2" t="n">
-        <v>42.3446563087249</v>
+        <v>42.34465630872493</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.32389017004362</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.3277646106423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1720646006321</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0.03464559240276976</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.91798164808414</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>156.3804335887028</v>
+        <v>158.9511112267647</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>141.9718237239273</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28068,16 +28068,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="C11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="D11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="E11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="F11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="G11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="H11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="I11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="T11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="U11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="V11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="W11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="X11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="C13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="D13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="E13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="F13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="G13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="H13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="I13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="J13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="K13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="L13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="M13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="N13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="O13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="P13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="R13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="S13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="T13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="U13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="V13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="W13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="X13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.32389017004363</v>
+        <v>36.3238901700437</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="C14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="D14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="E14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="F14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="G14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="H14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="I14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="T14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="U14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="V14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="W14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="X14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="C16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="D16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="E16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="F16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="G16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="H16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="I16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="J16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="K16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="L16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="M16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="N16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="O16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="P16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="R16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="S16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="T16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="U16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="V16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="W16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="X16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.28301441995939</v>
+        <v>40.28301441995938</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="C17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="D17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="E17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="F17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="G17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="H17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="I17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="T17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="U17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="V17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="W17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="X17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="C19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="D19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="E19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="F19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="G19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="H19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="I19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="J19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="K19" t="n">
-        <v>82.62767072868397</v>
+        <v>82.62767072868351</v>
       </c>
       <c r="L19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="M19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="N19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="O19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="P19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="R19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="S19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="T19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="U19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="V19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="W19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="X19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="C20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="D20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="E20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="F20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="G20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="H20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="I20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="T20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="U20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="V20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="W20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="X20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="C22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="D22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="E22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="F22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="G22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="H22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="I22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="J22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="K22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="L22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="M22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868351</v>
       </c>
       <c r="N22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="O22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="P22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.62767072868401</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="R22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="S22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="T22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="U22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="V22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="W22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="X22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868431</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="C23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="D23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="E23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="F23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="G23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="H23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="I23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="T23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="U23" t="n">
-        <v>82.62767072868439</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="V23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="W23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="X23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="C25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="D25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="E25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="F25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="G25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="H25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="I25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="K25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="L25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="M25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="N25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="O25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="P25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="R25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="S25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="T25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="U25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="V25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="W25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="X25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868427</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="C26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="D26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="E26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="F26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="G26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="H26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="I26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="T26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="U26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="V26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="W26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="X26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="C28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="D28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="E28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="F28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="G28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="H28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="I28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="K28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="L28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="M28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="N28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="O28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="P28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="R28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="S28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="T28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="U28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="V28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="W28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="X28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.62767072868428</v>
+        <v>82.62767072868427</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="C29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="D29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="E29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="F29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="G29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="H29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="I29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="T29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="U29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="V29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="W29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="X29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="C31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="D31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="E31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="F31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="G31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="H31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="I31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="J31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="K31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="L31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="M31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="N31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="O31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="P31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="R31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="S31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="T31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="U31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="V31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="W31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="X31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.66854647876852</v>
+        <v>78.66854647876859</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="C32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="D32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="E32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="F32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="G32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="H32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="I32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="T32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="U32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="V32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="W32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="X32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="C34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="D34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="E34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="F34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="G34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="H34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="I34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="J34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="K34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="L34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="M34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="N34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="O34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="P34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="R34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="S34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="T34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="U34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="V34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="W34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="X34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.62767072868427</v>
+        <v>82.62767072868428</v>
       </c>
     </row>
     <row r="35">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="C38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="D38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="E38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="F38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="G38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="H38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="I38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="T38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="U38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="V38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="W38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="X38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="C40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="D40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="E40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="F40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="G40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="H40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="I40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="J40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="K40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="L40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="M40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="N40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="O40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="P40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.62767072868401</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="R40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="S40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="T40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="U40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="V40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="W40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="X40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.62767072868429</v>
+        <v>82.62767072868434</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="C41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="D41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="E41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="F41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="G41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="H41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="I41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="T41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="U41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="V41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="W41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="X41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="C43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="D43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="E43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="F43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="G43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="H43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="I43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="J43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="K43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="L43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="M43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="N43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="O43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="P43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="R43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="S43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="T43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="U43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="V43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="W43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="X43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868427</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="C44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="D44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="E44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="F44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="G44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="H44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="I44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="T44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="U44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="V44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="W44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="X44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="C46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="D46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="E46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="F46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="G46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="H46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="I46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="J46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="K46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="L46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="M46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="N46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="O46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="P46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="R46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="S46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="T46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="U46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="V46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="W46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="X46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.62767072868431</v>
+        <v>82.62767072868428</v>
       </c>
     </row>
   </sheetData>
@@ -32704,7 +32704,7 @@
         <v>26.87038747671095</v>
       </c>
       <c r="I23" t="n">
-        <v>101.151774753658</v>
+        <v>101.1517747536579</v>
       </c>
       <c r="J23" t="n">
         <v>222.6867373710726</v>
@@ -32713,19 +32713,19 @@
         <v>333.7496937376465</v>
       </c>
       <c r="L23" t="n">
-        <v>414.0460072482427</v>
+        <v>414.0460072482426</v>
       </c>
       <c r="M23" t="n">
-        <v>460.7059611883338</v>
+        <v>460.7059611883337</v>
       </c>
       <c r="N23" t="n">
         <v>468.1606652936144</v>
       </c>
       <c r="O23" t="n">
-        <v>442.0708407632549</v>
+        <v>442.0708407632548</v>
       </c>
       <c r="P23" t="n">
-        <v>377.2972349210675</v>
+        <v>377.2972349210674</v>
       </c>
       <c r="Q23" t="n">
         <v>283.334510496831</v>
@@ -32734,13 +32734,13 @@
         <v>164.8135703487314</v>
       </c>
       <c r="S23" t="n">
-        <v>59.78849794952288</v>
+        <v>59.78849794952287</v>
       </c>
       <c r="T23" t="n">
         <v>11.48542621059951</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2098992796911388</v>
+        <v>0.2098992796911387</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.403825194302234</v>
       </c>
       <c r="H24" t="n">
-        <v>13.5579959554979</v>
+        <v>13.55799595549789</v>
       </c>
       <c r="I24" t="n">
-        <v>48.33345515470413</v>
+        <v>48.33345515470412</v>
       </c>
       <c r="J24" t="n">
         <v>132.6306952213352</v>
@@ -32795,10 +32795,10 @@
         <v>304.8086238768952</v>
       </c>
       <c r="M24" t="n">
-        <v>355.6972871703512</v>
+        <v>355.6972871703511</v>
       </c>
       <c r="N24" t="n">
-        <v>365.1115359514395</v>
+        <v>365.1115359514394</v>
       </c>
       <c r="O24" t="n">
         <v>334.0057250671636</v>
@@ -32810,16 +32810,16 @@
         <v>179.1970546270712</v>
       </c>
       <c r="R24" t="n">
-        <v>87.16030460764226</v>
+        <v>87.16030460764225</v>
       </c>
       <c r="S24" t="n">
-        <v>26.07543727135947</v>
+        <v>26.07543727135946</v>
       </c>
       <c r="T24" t="n">
         <v>5.658400673525231</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09235692067777861</v>
+        <v>0.09235692067777859</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,7 +32865,7 @@
         <v>35.39319073423137</v>
       </c>
       <c r="J25" t="n">
-        <v>83.20823589483594</v>
+        <v>83.20823589483592</v>
       </c>
       <c r="K25" t="n">
         <v>136.7366921352711</v>
@@ -32883,22 +32883,22 @@
         <v>166.3522761595615</v>
       </c>
       <c r="P25" t="n">
-        <v>142.3431104982509</v>
+        <v>142.3431104982508</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.55099149123492</v>
+        <v>98.5509914912349</v>
       </c>
       <c r="R25" t="n">
         <v>52.91859775438581</v>
       </c>
       <c r="S25" t="n">
-        <v>20.51050382029066</v>
+        <v>20.51050382029065</v>
       </c>
       <c r="T25" t="n">
-        <v>5.028657691985712</v>
+        <v>5.028657691985711</v>
       </c>
       <c r="U25" t="n">
-        <v>0.064195630110456</v>
+        <v>0.06419563011045598</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33883,19 +33883,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.623740996139235</v>
+        <v>2.623740996139234</v>
       </c>
       <c r="H38" t="n">
-        <v>26.87038747671095</v>
+        <v>26.87038747671094</v>
       </c>
       <c r="I38" t="n">
         <v>101.1517747536579</v>
       </c>
       <c r="J38" t="n">
-        <v>222.6867373710726</v>
+        <v>222.6867373710725</v>
       </c>
       <c r="K38" t="n">
-        <v>333.7496937376465</v>
+        <v>333.7496937376464</v>
       </c>
       <c r="L38" t="n">
         <v>414.0460072482426</v>
@@ -33904,25 +33904,25 @@
         <v>460.7059611883337</v>
       </c>
       <c r="N38" t="n">
-        <v>468.1606652936144</v>
+        <v>468.1606652936143</v>
       </c>
       <c r="O38" t="n">
         <v>442.0708407632548</v>
       </c>
       <c r="P38" t="n">
-        <v>377.2972349210674</v>
+        <v>377.2972349210673</v>
       </c>
       <c r="Q38" t="n">
-        <v>283.334510496831</v>
+        <v>283.3345104968309</v>
       </c>
       <c r="R38" t="n">
-        <v>164.8135703487314</v>
+        <v>164.8135703487313</v>
       </c>
       <c r="S38" t="n">
-        <v>59.78849794952287</v>
+        <v>59.78849794952286</v>
       </c>
       <c r="T38" t="n">
-        <v>11.48542621059951</v>
+        <v>11.4854262105995</v>
       </c>
       <c r="U38" t="n">
         <v>0.2098992796911387</v>
@@ -33968,7 +33968,7 @@
         <v>13.55799595549789</v>
       </c>
       <c r="I39" t="n">
-        <v>48.33345515470412</v>
+        <v>48.33345515470411</v>
       </c>
       <c r="J39" t="n">
         <v>132.6306952213352</v>
@@ -33977,34 +33977,34 @@
         <v>226.6869832395849</v>
       </c>
       <c r="L39" t="n">
-        <v>304.8086238768952</v>
+        <v>304.8086238768951</v>
       </c>
       <c r="M39" t="n">
-        <v>355.6972871703511</v>
+        <v>355.697287170351</v>
       </c>
       <c r="N39" t="n">
         <v>365.1115359514394</v>
       </c>
       <c r="O39" t="n">
-        <v>334.0057250671636</v>
+        <v>334.0057250671635</v>
       </c>
       <c r="P39" t="n">
-        <v>268.0690408312749</v>
+        <v>268.0690408312748</v>
       </c>
       <c r="Q39" t="n">
-        <v>179.1970546270712</v>
+        <v>179.1970546270711</v>
       </c>
       <c r="R39" t="n">
-        <v>87.16030460764225</v>
+        <v>87.16030460764223</v>
       </c>
       <c r="S39" t="n">
         <v>26.07543727135946</v>
       </c>
       <c r="T39" t="n">
-        <v>5.658400673525231</v>
+        <v>5.65840067352523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09235692067777859</v>
+        <v>0.09235692067777858</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,22 +34047,22 @@
         <v>10.46388770800432</v>
       </c>
       <c r="I40" t="n">
-        <v>35.39319073423137</v>
+        <v>35.39319073423136</v>
       </c>
       <c r="J40" t="n">
-        <v>83.20823589483592</v>
+        <v>83.20823589483591</v>
       </c>
       <c r="K40" t="n">
-        <v>136.7366921352711</v>
+        <v>136.736692135271</v>
       </c>
       <c r="L40" t="n">
         <v>174.9758891377327</v>
       </c>
       <c r="M40" t="n">
-        <v>184.4875416657652</v>
+        <v>184.4875416657651</v>
       </c>
       <c r="N40" t="n">
-        <v>180.1008402748842</v>
+        <v>180.1008402748841</v>
       </c>
       <c r="O40" t="n">
         <v>166.3522761595615</v>
@@ -34071,19 +34071,19 @@
         <v>142.3431104982508</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.5509914912349</v>
+        <v>98.55099149123488</v>
       </c>
       <c r="R40" t="n">
-        <v>52.91859775438581</v>
+        <v>52.9185977543858</v>
       </c>
       <c r="S40" t="n">
         <v>20.51050382029065</v>
       </c>
       <c r="T40" t="n">
-        <v>5.028657691985711</v>
+        <v>5.02865769198571</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06419563011045598</v>
+        <v>0.06419563011045597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,19 +34120,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.623740996139235</v>
+        <v>2.623740996139234</v>
       </c>
       <c r="H41" t="n">
-        <v>26.87038747671095</v>
+        <v>26.87038747671094</v>
       </c>
       <c r="I41" t="n">
         <v>101.1517747536579</v>
       </c>
       <c r="J41" t="n">
-        <v>222.6867373710726</v>
+        <v>222.6867373710725</v>
       </c>
       <c r="K41" t="n">
-        <v>333.7496937376465</v>
+        <v>333.7496937376464</v>
       </c>
       <c r="L41" t="n">
         <v>414.0460072482426</v>
@@ -34141,25 +34141,25 @@
         <v>460.7059611883337</v>
       </c>
       <c r="N41" t="n">
-        <v>468.1606652936144</v>
+        <v>468.1606652936143</v>
       </c>
       <c r="O41" t="n">
         <v>442.0708407632548</v>
       </c>
       <c r="P41" t="n">
-        <v>377.2972349210674</v>
+        <v>377.2972349210673</v>
       </c>
       <c r="Q41" t="n">
-        <v>283.334510496831</v>
+        <v>283.3345104968309</v>
       </c>
       <c r="R41" t="n">
-        <v>164.8135703487314</v>
+        <v>164.8135703487313</v>
       </c>
       <c r="S41" t="n">
-        <v>59.78849794952287</v>
+        <v>59.78849794952286</v>
       </c>
       <c r="T41" t="n">
-        <v>11.48542621059951</v>
+        <v>11.4854262105995</v>
       </c>
       <c r="U41" t="n">
         <v>0.2098992796911387</v>
@@ -34205,7 +34205,7 @@
         <v>13.55799595549789</v>
       </c>
       <c r="I42" t="n">
-        <v>48.33345515470412</v>
+        <v>48.33345515470411</v>
       </c>
       <c r="J42" t="n">
         <v>132.6306952213352</v>
@@ -34214,34 +34214,34 @@
         <v>226.6869832395849</v>
       </c>
       <c r="L42" t="n">
-        <v>304.8086238768952</v>
+        <v>304.8086238768951</v>
       </c>
       <c r="M42" t="n">
-        <v>355.6972871703511</v>
+        <v>355.697287170351</v>
       </c>
       <c r="N42" t="n">
         <v>365.1115359514394</v>
       </c>
       <c r="O42" t="n">
-        <v>334.0057250671636</v>
+        <v>334.0057250671635</v>
       </c>
       <c r="P42" t="n">
-        <v>268.0690408312749</v>
+        <v>268.0690408312748</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.1970546270712</v>
+        <v>179.1970546270711</v>
       </c>
       <c r="R42" t="n">
-        <v>87.16030460764225</v>
+        <v>87.16030460764223</v>
       </c>
       <c r="S42" t="n">
         <v>26.07543727135946</v>
       </c>
       <c r="T42" t="n">
-        <v>5.658400673525231</v>
+        <v>5.65840067352523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09235692067777859</v>
+        <v>0.09235692067777858</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,22 +34284,22 @@
         <v>10.46388770800432</v>
       </c>
       <c r="I43" t="n">
-        <v>35.39319073423137</v>
+        <v>35.39319073423136</v>
       </c>
       <c r="J43" t="n">
-        <v>83.20823589483592</v>
+        <v>83.20823589483591</v>
       </c>
       <c r="K43" t="n">
-        <v>136.7366921352711</v>
+        <v>136.736692135271</v>
       </c>
       <c r="L43" t="n">
         <v>174.9758891377327</v>
       </c>
       <c r="M43" t="n">
-        <v>184.4875416657652</v>
+        <v>184.4875416657651</v>
       </c>
       <c r="N43" t="n">
-        <v>180.1008402748842</v>
+        <v>180.1008402748841</v>
       </c>
       <c r="O43" t="n">
         <v>166.3522761595615</v>
@@ -34308,19 +34308,19 @@
         <v>142.3431104982508</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.5509914912349</v>
+        <v>98.55099149123488</v>
       </c>
       <c r="R43" t="n">
-        <v>52.91859775438581</v>
+        <v>52.9185977543858</v>
       </c>
       <c r="S43" t="n">
         <v>20.51050382029065</v>
       </c>
       <c r="T43" t="n">
-        <v>5.028657691985711</v>
+        <v>5.02865769198571</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06419563011045598</v>
+        <v>0.06419563011045597</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="N8" t="n">
-        <v>14.68444509028111</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>113.6598426926659</v>
       </c>
       <c r="L11" t="n">
-        <v>595.9408068287058</v>
+        <v>327.393870668392</v>
       </c>
       <c r="M11" t="n">
         <v>654.5024806350298</v>
       </c>
       <c r="N11" t="n">
-        <v>238.7476016970235</v>
+        <v>654.5024806350298</v>
       </c>
       <c r="O11" t="n">
-        <v>418.1820452105234</v>
+        <v>592.7728106043135</v>
       </c>
       <c r="P11" t="n">
-        <v>467.8629473372805</v>
+        <v>146.0642391657979</v>
       </c>
       <c r="Q11" t="n">
         <v>61.02882062238152</v>
@@ -35495,19 +35495,19 @@
         <v>537.0945894004801</v>
       </c>
       <c r="M12" t="n">
-        <v>550.0540280788915</v>
+        <v>654.5024806350298</v>
       </c>
       <c r="N12" t="n">
-        <v>654.5024806350298</v>
+        <v>233.7698238681061</v>
       </c>
       <c r="O12" t="n">
-        <v>191.4094806227191</v>
+        <v>297.6163970976554</v>
       </c>
       <c r="P12" t="n">
         <v>134.0946334169446</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.21528054104965</v>
+        <v>249.2925682768987</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>26.17294594820678</v>
+        <v>26.17294594820685</v>
       </c>
       <c r="K13" t="n">
-        <v>150.7910904794318</v>
+        <v>150.7910904794319</v>
       </c>
       <c r="L13" t="n">
-        <v>238.8898045680924</v>
+        <v>238.8898045680925</v>
       </c>
       <c r="M13" t="n">
-        <v>260.3953087976494</v>
+        <v>260.3953087976495</v>
       </c>
       <c r="N13" t="n">
-        <v>260.5569028241564</v>
+        <v>260.5569028241565</v>
       </c>
       <c r="O13" t="n">
-        <v>227.2612942436448</v>
+        <v>227.2612942436449</v>
       </c>
       <c r="P13" t="n">
         <v>175.945559933188</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71283840958414</v>
+        <v>48.71283840958422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>41.6408328443863</v>
+        <v>210.7374480164601</v>
       </c>
       <c r="K14" t="n">
-        <v>260.8615894491964</v>
+        <v>437.8052552638306</v>
       </c>
       <c r="L14" t="n">
         <v>595.9408068287058</v>
       </c>
       <c r="M14" t="n">
-        <v>679.8732614538935</v>
+        <v>333.8329804671856</v>
       </c>
       <c r="N14" t="n">
         <v>676.0945261090076</v>
@@ -35732,7 +35732,7 @@
         <v>537.0945894004801</v>
       </c>
       <c r="M15" t="n">
-        <v>213.5632532483328</v>
+        <v>407.458058106822</v>
       </c>
       <c r="N15" t="n">
         <v>713.1121982116597</v>
@@ -35741,10 +35741,10 @@
         <v>191.4094806227191</v>
       </c>
       <c r="P15" t="n">
-        <v>452.5574020568818</v>
+        <v>134.0946334169446</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.7246044954505</v>
+        <v>249.2925682768987</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.13207019812254</v>
+        <v>30.13207019812253</v>
       </c>
       <c r="K16" t="n">
         <v>154.7502147293476</v>
@@ -35823,7 +35823,7 @@
         <v>179.9046841831037</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.6719626594999</v>
+        <v>52.67196265949989</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>210.7374480164601</v>
+        <v>41.6408328443863</v>
       </c>
       <c r="K17" t="n">
         <v>437.8052552638306</v>
       </c>
       <c r="L17" t="n">
-        <v>595.9408068287058</v>
+        <v>418.9971410140716</v>
       </c>
       <c r="M17" t="n">
-        <v>348.777432874767</v>
+        <v>679.8732614538935</v>
       </c>
       <c r="N17" t="n">
         <v>676.0945261090076</v>
@@ -35905,7 +35905,7 @@
         <v>273.3438112822862</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.94445240758168</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.793068554668508</v>
+        <v>131.8841038950773</v>
       </c>
       <c r="K18" t="n">
         <v>353.3107812778045</v>
       </c>
       <c r="L18" t="n">
-        <v>537.0945894004801</v>
+        <v>166.254244097021</v>
       </c>
       <c r="M18" t="n">
-        <v>213.5632532483328</v>
+        <v>679.2683169983327</v>
       </c>
       <c r="N18" t="n">
         <v>713.1121982116597</v>
       </c>
       <c r="O18" t="n">
-        <v>276.9188045771202</v>
+        <v>374.4258194301075</v>
       </c>
       <c r="P18" t="n">
-        <v>452.5574020568818</v>
+        <v>134.0946334169446</v>
       </c>
       <c r="Q18" t="n">
         <v>39.21528054104965</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.47672650684744</v>
+        <v>72.47672650684746</v>
       </c>
       <c r="K19" t="n">
-        <v>197.0948710380722</v>
+        <v>197.0948710380717</v>
       </c>
       <c r="L19" t="n">
         <v>285.1935851267331</v>
@@ -36051,16 +36051,16 @@
         <v>306.6990893562901</v>
       </c>
       <c r="N19" t="n">
-        <v>306.860683382797</v>
+        <v>306.8606833827971</v>
       </c>
       <c r="O19" t="n">
-        <v>273.5650748022854</v>
+        <v>273.5650748022855</v>
       </c>
       <c r="P19" t="n">
         <v>222.2493404918286</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.0166189682248</v>
+        <v>95.01661896822482</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>210.7374480164601</v>
+        <v>41.6408328443863</v>
       </c>
       <c r="K20" t="n">
         <v>437.8052552638306</v>
@@ -36136,10 +36136,10 @@
         <v>592.7728106043135</v>
       </c>
       <c r="P20" t="n">
-        <v>146.0642391657979</v>
+        <v>467.8629473372805</v>
       </c>
       <c r="Q20" t="n">
-        <v>264.0466908746434</v>
+        <v>111.3445978752339</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.793068554668508</v>
+        <v>131.8841038950773</v>
       </c>
       <c r="K21" t="n">
         <v>353.3107812778045</v>
@@ -36206,13 +36206,13 @@
         <v>537.0945894004801</v>
       </c>
       <c r="M21" t="n">
-        <v>213.5632532483328</v>
+        <v>281.3670227664132</v>
       </c>
       <c r="N21" t="n">
-        <v>513.1446837934193</v>
+        <v>713.1121982116597</v>
       </c>
       <c r="O21" t="n">
-        <v>585.2717998994486</v>
+        <v>191.4094806227191</v>
       </c>
       <c r="P21" t="n">
         <v>134.0946334169446</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.47672650684744</v>
+        <v>72.47672650684746</v>
       </c>
       <c r="K22" t="n">
         <v>197.0948710380725</v>
@@ -36285,19 +36285,19 @@
         <v>285.1935851267331</v>
       </c>
       <c r="M22" t="n">
-        <v>306.6990893562901</v>
+        <v>306.6990893562893</v>
       </c>
       <c r="N22" t="n">
-        <v>306.860683382797</v>
+        <v>306.8606833827971</v>
       </c>
       <c r="O22" t="n">
-        <v>273.5650748022854</v>
+        <v>273.5650748022855</v>
       </c>
       <c r="P22" t="n">
         <v>222.2493404918286</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.01661896822452</v>
+        <v>95.01661896822482</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>210.7374480164601</v>
       </c>
       <c r="K23" t="n">
-        <v>437.8052552638307</v>
+        <v>437.8052552638306</v>
       </c>
       <c r="L23" t="n">
-        <v>595.9408068287059</v>
+        <v>595.9408068287058</v>
       </c>
       <c r="M23" t="n">
         <v>679.8732614538935</v>
       </c>
       <c r="N23" t="n">
-        <v>344.998697529881</v>
+        <v>676.0945261090076</v>
       </c>
       <c r="O23" t="n">
-        <v>592.7728106043136</v>
+        <v>246.7325296176058</v>
       </c>
       <c r="P23" t="n">
-        <v>467.8629473372806</v>
+        <v>467.8629473372805</v>
       </c>
       <c r="Q23" t="n">
         <v>273.3438112822862</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.94445240758168</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.793068554668537</v>
+        <v>131.8841038950773</v>
       </c>
       <c r="K24" t="n">
         <v>353.3107812778045</v>
       </c>
       <c r="L24" t="n">
-        <v>537.0945894004802</v>
+        <v>537.0945894004801</v>
       </c>
       <c r="M24" t="n">
-        <v>492.9381131736454</v>
+        <v>442.2466284700295</v>
       </c>
       <c r="N24" t="n">
-        <v>233.7698238681062</v>
+        <v>233.7698238681061</v>
       </c>
       <c r="O24" t="n">
-        <v>585.2717998994488</v>
+        <v>191.4094806227191</v>
       </c>
       <c r="P24" t="n">
-        <v>134.0946334169447</v>
+        <v>452.5574020568818</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.2925682768988</v>
+        <v>249.2925682768987</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.47672650684746</v>
+        <v>72.47672650684741</v>
       </c>
       <c r="K25" t="n">
         <v>197.0948710380725</v>
@@ -36522,19 +36522,19 @@
         <v>285.1935851267331</v>
       </c>
       <c r="M25" t="n">
-        <v>306.6990893562901</v>
+        <v>306.69908935629</v>
       </c>
       <c r="N25" t="n">
-        <v>306.8606833827971</v>
+        <v>306.860683382797</v>
       </c>
       <c r="O25" t="n">
-        <v>273.5650748022855</v>
+        <v>273.5650748022854</v>
       </c>
       <c r="P25" t="n">
-        <v>222.2493404918287</v>
+        <v>222.2493404918286</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.01661896822483</v>
+        <v>95.01661896822478</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>595.9408068287058</v>
       </c>
       <c r="M26" t="n">
-        <v>679.8732614538935</v>
+        <v>333.8329804671847</v>
       </c>
       <c r="N26" t="n">
-        <v>344.9986975298819</v>
+        <v>676.0945261090076</v>
       </c>
       <c r="O26" t="n">
         <v>592.7728106043135</v>
@@ -36616,7 +36616,7 @@
         <v>273.3438112822862</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>14.94445240758168</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>131.8841038950773</v>
       </c>
       <c r="K27" t="n">
-        <v>88.8455442652259</v>
+        <v>93.26711877623106</v>
       </c>
       <c r="L27" t="n">
-        <v>537.0945894004801</v>
+        <v>166.254244097021</v>
       </c>
       <c r="M27" t="n">
-        <v>213.5632532483328</v>
+        <v>679.2683169983327</v>
       </c>
       <c r="N27" t="n">
-        <v>713.1121982116597</v>
+        <v>233.7698238681061</v>
       </c>
       <c r="O27" t="n">
-        <v>523.6784871533779</v>
+        <v>585.2717998994486</v>
       </c>
       <c r="P27" t="n">
-        <v>134.0946334169446</v>
+        <v>452.5574020568818</v>
       </c>
       <c r="Q27" t="n">
         <v>249.2925682768987</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.47672650684743</v>
+        <v>72.47672650684741</v>
       </c>
       <c r="K28" t="n">
         <v>197.0948710380725</v>
@@ -36759,7 +36759,7 @@
         <v>285.1935851267331</v>
       </c>
       <c r="M28" t="n">
-        <v>306.6990893562901</v>
+        <v>306.69908935629</v>
       </c>
       <c r="N28" t="n">
         <v>306.860683382797</v>
@@ -36771,7 +36771,7 @@
         <v>222.2493404918286</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.01661896822479</v>
+        <v>95.01661896822478</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>595.9408068287058</v>
       </c>
       <c r="M29" t="n">
-        <v>679.8732614538935</v>
+        <v>394.4256381028708</v>
       </c>
       <c r="N29" t="n">
-        <v>602.9618934178905</v>
+        <v>676.0945261090076</v>
       </c>
       <c r="O29" t="n">
         <v>592.7728106043135</v>
@@ -36850,7 +36850,7 @@
         <v>467.8629473372805</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.02882062238152</v>
+        <v>273.3438112822862</v>
       </c>
       <c r="R29" t="n">
         <v>14.94445240758168</v>
@@ -36911,25 +36911,25 @@
         <v>131.8841038950773</v>
       </c>
       <c r="K30" t="n">
-        <v>88.8455442652259</v>
+        <v>289.7070959185264</v>
       </c>
       <c r="L30" t="n">
-        <v>537.0945894004801</v>
+        <v>166.254244097021</v>
       </c>
       <c r="M30" t="n">
-        <v>679.2683169983327</v>
+        <v>213.5632532483328</v>
       </c>
       <c r="N30" t="n">
-        <v>233.7698238681061</v>
+        <v>713.1121982116597</v>
       </c>
       <c r="O30" t="n">
-        <v>218.8530291069943</v>
+        <v>585.2717998994486</v>
       </c>
       <c r="P30" t="n">
         <v>452.5574020568818</v>
       </c>
       <c r="Q30" t="n">
-        <v>249.2925682768987</v>
+        <v>39.21528054104965</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.51760225693167</v>
+        <v>68.51760225693174</v>
       </c>
       <c r="K31" t="n">
-        <v>193.1357467881567</v>
+        <v>193.1357467881568</v>
       </c>
       <c r="L31" t="n">
         <v>281.2344608768174</v>
       </c>
       <c r="M31" t="n">
-        <v>302.7399651063743</v>
+        <v>302.7399651063744</v>
       </c>
       <c r="N31" t="n">
         <v>302.9015591328813</v>
@@ -37005,10 +37005,10 @@
         <v>269.6059505523697</v>
       </c>
       <c r="P31" t="n">
-        <v>218.2902162419128</v>
+        <v>218.2902162419129</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.05749471830903</v>
+        <v>91.0574947183091</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>41.6408328443863</v>
+        <v>210.7374480164601</v>
       </c>
       <c r="K32" t="n">
         <v>437.8052552638306</v>
@@ -37078,7 +37078,7 @@
         <v>679.8732614538935</v>
       </c>
       <c r="N32" t="n">
-        <v>676.0945261090076</v>
+        <v>330.0542451222987</v>
       </c>
       <c r="O32" t="n">
         <v>592.7728106043135</v>
@@ -37087,10 +37087,10 @@
         <v>467.8629473372805</v>
       </c>
       <c r="Q32" t="n">
-        <v>111.3445978752344</v>
+        <v>273.3438112822862</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.94445240758168</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>131.8841038950773</v>
       </c>
       <c r="K33" t="n">
-        <v>353.3107812778045</v>
+        <v>88.8455442652259</v>
       </c>
       <c r="L33" t="n">
         <v>537.0945894004801</v>
       </c>
       <c r="M33" t="n">
-        <v>281.3670227664132</v>
+        <v>213.5632532483328</v>
       </c>
       <c r="N33" t="n">
         <v>713.1121982116597</v>
       </c>
       <c r="O33" t="n">
-        <v>191.4094806227191</v>
+        <v>585.2717998994486</v>
       </c>
       <c r="P33" t="n">
         <v>134.0946334169446</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.2925682768987</v>
+        <v>187.6992555308279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.47672650684741</v>
+        <v>72.47672650684743</v>
       </c>
       <c r="K34" t="n">
         <v>197.0948710380725</v>
@@ -37233,7 +37233,7 @@
         <v>285.1935851267331</v>
       </c>
       <c r="M34" t="n">
-        <v>306.69908935629</v>
+        <v>306.6990893562901</v>
       </c>
       <c r="N34" t="n">
         <v>306.860683382797</v>
@@ -37245,7 +37245,7 @@
         <v>222.2493404918286</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.01661896822478</v>
+        <v>95.01661896822479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>41.6408328443863</v>
+        <v>210.7374480164601</v>
       </c>
       <c r="K35" t="n">
         <v>437.8052552638306</v>
       </c>
       <c r="L35" t="n">
-        <v>595.9408068287058</v>
+        <v>249.9005258419978</v>
       </c>
       <c r="M35" t="n">
         <v>679.8732614538935</v>
@@ -37321,13 +37321,13 @@
         <v>592.7728106043135</v>
       </c>
       <c r="P35" t="n">
-        <v>305.8637339302279</v>
+        <v>467.8629473372805</v>
       </c>
       <c r="Q35" t="n">
         <v>273.3438112822862</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>14.94445240758168</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>131.8841038950773</v>
       </c>
       <c r="K36" t="n">
-        <v>88.8455442652259</v>
+        <v>353.3107812778045</v>
       </c>
       <c r="L36" t="n">
         <v>537.0945894004801</v>
       </c>
       <c r="M36" t="n">
-        <v>362.0472282381113</v>
+        <v>679.2683169983327</v>
       </c>
       <c r="N36" t="n">
-        <v>713.1121982116597</v>
+        <v>233.7698238681061</v>
       </c>
       <c r="O36" t="n">
-        <v>585.2717998994486</v>
+        <v>272.8505607343532</v>
       </c>
       <c r="P36" t="n">
         <v>134.0946334169446</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.21528054104965</v>
+        <v>249.2925682768987</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>210.7374480164601</v>
+        <v>210.73744801646</v>
       </c>
       <c r="K38" t="n">
         <v>437.8052552638306</v>
       </c>
       <c r="L38" t="n">
-        <v>595.9408068287058</v>
+        <v>595.9408068287057</v>
       </c>
       <c r="M38" t="n">
-        <v>333.8329804671856</v>
+        <v>679.8732614538934</v>
       </c>
       <c r="N38" t="n">
-        <v>676.0945261090076</v>
+        <v>542.3692357822043</v>
       </c>
       <c r="O38" t="n">
-        <v>592.7728106043135</v>
+        <v>592.7728106043133</v>
       </c>
       <c r="P38" t="n">
-        <v>467.8629473372805</v>
+        <v>467.8629473372804</v>
       </c>
       <c r="Q38" t="n">
-        <v>273.3438112822862</v>
+        <v>61.02882062238146</v>
       </c>
       <c r="R38" t="n">
-        <v>14.94445240758168</v>
+        <v>14.94445240758165</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>131.8841038950773</v>
       </c>
       <c r="K39" t="n">
-        <v>116.2890927495013</v>
+        <v>353.3107812778045</v>
       </c>
       <c r="L39" t="n">
         <v>537.0945894004801</v>
@@ -37631,13 +37631,13 @@
         <v>679.2683169983327</v>
       </c>
       <c r="N39" t="n">
-        <v>233.7698238681061</v>
+        <v>233.769823868106</v>
       </c>
       <c r="O39" t="n">
-        <v>191.4094806227191</v>
+        <v>272.8505607343536</v>
       </c>
       <c r="P39" t="n">
-        <v>452.5574020568818</v>
+        <v>134.0946334169446</v>
       </c>
       <c r="Q39" t="n">
         <v>249.2925682768987</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.47672650684744</v>
+        <v>72.47672650684747</v>
       </c>
       <c r="K40" t="n">
         <v>197.0948710380725</v>
@@ -37710,16 +37710,16 @@
         <v>306.6990893562901</v>
       </c>
       <c r="N40" t="n">
-        <v>306.860683382797</v>
+        <v>306.8606833827971</v>
       </c>
       <c r="O40" t="n">
-        <v>273.5650748022854</v>
+        <v>273.5650748022855</v>
       </c>
       <c r="P40" t="n">
         <v>222.2493404918286</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.01661896822452</v>
+        <v>95.01661896822483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>210.7374480164601</v>
+        <v>41.64083284438624</v>
       </c>
       <c r="K41" t="n">
-        <v>113.6598426926659</v>
+        <v>437.8052552638306</v>
       </c>
       <c r="L41" t="n">
-        <v>595.9408068287058</v>
+        <v>595.9408068287057</v>
       </c>
       <c r="M41" t="n">
-        <v>657.9783930383502</v>
+        <v>679.8732614538934</v>
       </c>
       <c r="N41" t="n">
         <v>676.0945261090076</v>
       </c>
       <c r="O41" t="n">
-        <v>592.7728106043135</v>
+        <v>415.8291447896805</v>
       </c>
       <c r="P41" t="n">
-        <v>467.8629473372805</v>
+        <v>467.8629473372804</v>
       </c>
       <c r="Q41" t="n">
-        <v>273.3438112822862</v>
+        <v>273.3438112822861</v>
       </c>
       <c r="R41" t="n">
-        <v>14.94445240758168</v>
+        <v>14.94445240758165</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>5.793068554668508</v>
       </c>
       <c r="K42" t="n">
-        <v>228.7428174963563</v>
+        <v>88.84554426522587</v>
       </c>
       <c r="L42" t="n">
         <v>537.0945894004801</v>
       </c>
       <c r="M42" t="n">
-        <v>213.5632532483328</v>
+        <v>679.2683169983327</v>
       </c>
       <c r="N42" t="n">
-        <v>713.1121982116597</v>
+        <v>713.1121982116596</v>
       </c>
       <c r="O42" t="n">
-        <v>191.4094806227191</v>
+        <v>394.1417464796368</v>
       </c>
       <c r="P42" t="n">
-        <v>452.5574020568818</v>
+        <v>134.0946334169446</v>
       </c>
       <c r="Q42" t="n">
-        <v>249.2925682768987</v>
+        <v>39.21528054104962</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.47672650684746</v>
+        <v>72.4767265068474</v>
       </c>
       <c r="K43" t="n">
-        <v>197.0948710380725</v>
+        <v>197.0948710380724</v>
       </c>
       <c r="L43" t="n">
         <v>285.1935851267331</v>
       </c>
       <c r="M43" t="n">
-        <v>306.6990893562901</v>
+        <v>306.69908935629</v>
       </c>
       <c r="N43" t="n">
-        <v>306.8606833827971</v>
+        <v>306.860683382797</v>
       </c>
       <c r="O43" t="n">
-        <v>273.5650748022855</v>
+        <v>273.5650748022854</v>
       </c>
       <c r="P43" t="n">
-        <v>222.2493404918286</v>
+        <v>222.2493404918285</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.01661896822482</v>
+        <v>95.01661896822476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>595.9408068287057</v>
       </c>
       <c r="M44" t="n">
-        <v>679.8732614538934</v>
+        <v>333.8329804671865</v>
       </c>
       <c r="N44" t="n">
-        <v>557.3136881897858</v>
+        <v>676.0945261090076</v>
       </c>
       <c r="O44" t="n">
         <v>592.7728106043133</v>
@@ -38035,10 +38035,10 @@
         <v>467.8629473372804</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.02882062238146</v>
+        <v>273.3438112822861</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.94445240758165</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.793068554668508</v>
+        <v>131.8841038950773</v>
       </c>
       <c r="K45" t="n">
-        <v>314.2228725631814</v>
+        <v>88.84554426522587</v>
       </c>
       <c r="L45" t="n">
-        <v>537.0945894004801</v>
+        <v>367.1157957503223</v>
       </c>
       <c r="M45" t="n">
         <v>213.5632532483327</v>
       </c>
       <c r="N45" t="n">
-        <v>233.769823868106</v>
+        <v>713.1121982116596</v>
       </c>
       <c r="O45" t="n">
         <v>585.2717998994485</v>
@@ -38114,7 +38114,7 @@
         <v>452.5574020568818</v>
       </c>
       <c r="Q45" t="n">
-        <v>249.2925682768987</v>
+        <v>39.21528054104962</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.47672650684744</v>
+        <v>72.47672650684741</v>
       </c>
       <c r="K46" t="n">
         <v>197.0948710380725</v>
@@ -38181,7 +38181,7 @@
         <v>285.1935851267331</v>
       </c>
       <c r="M46" t="n">
-        <v>306.6990893562901</v>
+        <v>306.69908935629</v>
       </c>
       <c r="N46" t="n">
         <v>306.860683382797</v>
@@ -38193,7 +38193,7 @@
         <v>222.2493404918286</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.0166189682248</v>
+        <v>95.01661896822478</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
